--- a/sriramModel-nelson-atypical-patientID_21-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_21-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.2563564521238</v>
+        <v>17.21611142328512</v>
       </c>
       <c r="C2">
-        <v>17.24050986822612</v>
+        <v>17.23005735866658</v>
       </c>
       <c r="D2">
-        <v>17.38835805534556</v>
+        <v>17.21281564427748</v>
       </c>
       <c r="E2">
-        <v>17.48870603794913</v>
+        <v>17.21287944134805</v>
       </c>
       <c r="F2">
-        <v>17.2302383250263</v>
+        <v>17.28676441348751</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.21415931191765</v>
+        <v>17.13672990083605</v>
       </c>
       <c r="C3">
-        <v>17.18315409619419</v>
+        <v>17.16513105813065</v>
       </c>
       <c r="D3">
-        <v>17.47306734530512</v>
+        <v>17.13048161527492</v>
       </c>
       <c r="E3">
-        <v>17.66045039817709</v>
+        <v>17.13053771543388</v>
       </c>
       <c r="F3">
-        <v>17.16527015553913</v>
+        <v>17.27860520759861</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.17338747593394</v>
+        <v>17.061849674962</v>
       </c>
       <c r="C4">
-        <v>17.12790399399539</v>
+        <v>17.10517222940627</v>
       </c>
       <c r="D4">
-        <v>17.55407445916711</v>
+        <v>17.05298390333386</v>
       </c>
       <c r="E4">
-        <v>17.81548642859793</v>
+        <v>17.05296146596947</v>
       </c>
       <c r="F4">
-        <v>17.10499355803164</v>
+        <v>17.27534651923875</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.13401998991736</v>
+        <v>16.99146491252178</v>
       </c>
       <c r="C5">
-        <v>17.07473157085739</v>
+        <v>17.05013411183654</v>
       </c>
       <c r="D5">
-        <v>17.63133010441999</v>
+        <v>16.98030870637745</v>
       </c>
       <c r="E5">
-        <v>17.95408969426112</v>
+        <v>16.98013738596803</v>
       </c>
       <c r="F5">
-        <v>17.04930710174589</v>
+        <v>17.27681881907394</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.09603660416816</v>
+        <v>16.92557004133924</v>
       </c>
       <c r="C6">
-        <v>17.0236096194379</v>
+        <v>16.99997195770568</v>
       </c>
       <c r="D6">
-        <v>17.70478954171461</v>
+        <v>16.91244269104439</v>
       </c>
       <c r="E6">
-        <v>18.07655948136487</v>
+        <v>16.91205250357043</v>
       </c>
       <c r="F6">
-        <v>16.99810947000176</v>
+        <v>17.28285801901073</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.05941757859413</v>
+        <v>16.8641597247194</v>
       </c>
       <c r="C7">
-        <v>16.97451160261179</v>
+        <v>16.95464295752452</v>
       </c>
       <c r="D7">
-        <v>17.77441240657481</v>
+        <v>16.84937295744916</v>
       </c>
       <c r="E7">
-        <v>18.18322187530262</v>
+        <v>16.84869416585241</v>
       </c>
       <c r="F7">
-        <v>16.95129930244234</v>
+        <v>17.29330496165541</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.02414362779871</v>
+        <v>16.80722886291955</v>
       </c>
       <c r="C8">
-        <v>16.92741169712246</v>
+        <v>16.91410603947983</v>
       </c>
       <c r="D8">
-        <v>17.84016245521445</v>
+        <v>16.79108702740466</v>
       </c>
       <c r="E8">
-        <v>18.27443302911262</v>
+        <v>16.79005003287777</v>
       </c>
       <c r="F8">
-        <v>16.90877502828729</v>
+        <v>17.30800508990072</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.99019585429546</v>
+        <v>16.75477256334644</v>
       </c>
       <c r="C9">
-        <v>16.88228476425749</v>
+        <v>16.8783217324603</v>
       </c>
       <c r="D9">
-        <v>17.90200768321059</v>
+        <v>16.73757278875772</v>
       </c>
       <c r="E9">
-        <v>18.35058258551396</v>
+        <v>16.73610804017479</v>
       </c>
       <c r="F9">
-        <v>16.87043473193441</v>
+        <v>17.32680799277747</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.95755569123233</v>
+        <v>16.706786121828</v>
       </c>
       <c r="C10">
-        <v>16.83910628928851</v>
+        <v>16.84725207563972</v>
       </c>
       <c r="D10">
-        <v>17.95992039703869</v>
+        <v>16.68881846577308</v>
       </c>
       <c r="E10">
-        <v>18.41209752594018</v>
+        <v>16.68685637986533</v>
       </c>
       <c r="F10">
-        <v>16.83617604275176</v>
+        <v>17.34956703334356</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.92620486208717</v>
+        <v>16.66326500990022</v>
       </c>
       <c r="C11">
-        <v>16.79785234828197</v>
+        <v>16.82086050935071</v>
       </c>
       <c r="D11">
-        <v>18.01387726245163</v>
+        <v>16.644812598781</v>
       </c>
       <c r="E11">
-        <v>18.45944625198605</v>
+        <v>16.64228348807777</v>
       </c>
       <c r="F11">
-        <v>16.80589607903748</v>
+        <v>17.37613908396582</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.8961253577882</v>
+        <v>16.62420486561471</v>
       </c>
       <c r="C12">
-        <v>16.75849958444649</v>
+        <v>16.79911177163016</v>
       </c>
       <c r="D12">
-        <v>18.06385932481523</v>
+        <v>16.60554402436927</v>
       </c>
       <c r="E12">
-        <v>18.49314273397414</v>
+        <v>16.60237803249465</v>
       </c>
       <c r="F12">
-        <v>16.77949135876582</v>
+        <v>17.40638433285493</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.86729938359287</v>
+        <v>16.58960148199684</v>
       </c>
       <c r="C13">
-        <v>16.72102519456812</v>
+        <v>16.78197181408704</v>
       </c>
       <c r="D13">
-        <v>18.10985202566409</v>
+        <v>16.57100184882093</v>
       </c>
       <c r="E13">
-        <v>18.51375070430343</v>
+        <v>16.56712889479048</v>
       </c>
       <c r="F13">
-        <v>16.75685773086637</v>
+        <v>17.44016607565626</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.83970929977029</v>
+        <v>16.55945079447278</v>
       </c>
       <c r="C14">
-        <v>16.68540690380208</v>
+        <v>16.76940772953576</v>
       </c>
       <c r="D14">
-        <v>18.1518452253408</v>
+        <v>16.54117542776126</v>
       </c>
       <c r="E14">
-        <v>18.52188731120533</v>
+        <v>16.53652515711311</v>
       </c>
       <c r="F14">
-        <v>16.73789035095643</v>
+        <v>17.47735053558948</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.81333757613911</v>
+        <v>16.53374886920103</v>
       </c>
       <c r="C15">
-        <v>16.65162293395074</v>
+        <v>16.76138768321466</v>
       </c>
       <c r="D15">
-        <v>18.18983323744406</v>
+        <v>16.51605434853837</v>
       </c>
       <c r="E15">
-        <v>18.51822598067749</v>
+        <v>16.5105560899769</v>
       </c>
       <c r="F15">
-        <v>16.72248367837441</v>
+        <v>17.5178067025972</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.7881667556999</v>
+        <v>16.51249189516832</v>
       </c>
       <c r="C16">
-        <v>16.61965198186813</v>
+        <v>16.7578808473707</v>
       </c>
       <c r="D16">
-        <v>18.22381482967567</v>
+        <v>16.49562841424614</v>
       </c>
       <c r="E16">
-        <v>18.50349769693911</v>
+        <v>16.48921114147563</v>
       </c>
       <c r="F16">
-        <v>16.71053146353956</v>
+        <v>17.56140619763293</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.76417941038369</v>
+        <v>16.49567617616855</v>
       </c>
       <c r="C17">
-        <v>16.58947319622593</v>
+        <v>16.75885735968122</v>
       </c>
       <c r="D17">
-        <v>18.25379327330861</v>
+        <v>16.47988762706149</v>
       </c>
       <c r="E17">
-        <v>18.4784897117588</v>
+        <v>16.47247992756215</v>
       </c>
       <c r="F17">
-        <v>16.70192674814882</v>
+        <v>17.60802315203776</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.74135808694238</v>
+        <v>16.48329812252312</v>
       </c>
       <c r="C18">
-        <v>16.56106616125452</v>
+        <v>16.76428824390593</v>
       </c>
       <c r="D18">
-        <v>18.27977631917611</v>
+        <v>16.46882217558788</v>
       </c>
       <c r="E18">
-        <v>18.44404109694693</v>
+        <v>16.46035222010313</v>
       </c>
       <c r="F18">
-        <v>16.69656187222169</v>
+        <v>17.65753409604523</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.71968524155578</v>
+        <v>16.47535424160726</v>
       </c>
       <c r="C19">
-        <v>16.53441087101479</v>
+        <v>16.77414536181008</v>
       </c>
       <c r="D19">
-        <v>18.30177625794653</v>
+        <v>16.46242242333945</v>
       </c>
       <c r="E19">
-        <v>18.40103389953051</v>
+        <v>16.4528179444223</v>
       </c>
       <c r="F19">
-        <v>16.69432850360956</v>
+        <v>17.70981786623215</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.69914335094641</v>
+        <v>16.47184113890747</v>
       </c>
       <c r="C20">
-        <v>16.50948770995009</v>
+        <v>16.78840137950545</v>
       </c>
       <c r="D20">
-        <v>18.31980991514154</v>
+        <v>16.46067889788423</v>
       </c>
       <c r="E20">
-        <v>18.3503795407137</v>
+        <v>16.44986715920411</v>
       </c>
       <c r="F20">
-        <v>16.69511766035793</v>
+        <v>17.76475551505245</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.67971462688306</v>
+        <v>16.47275550168139</v>
       </c>
       <c r="C21">
-        <v>16.48627743304876</v>
+        <v>16.80702972352558</v>
       </c>
       <c r="D21">
-        <v>18.33389867089579</v>
+        <v>16.46358226603201</v>
       </c>
       <c r="E21">
-        <v>18.29300011741631</v>
+        <v>16.45149006902109</v>
       </c>
       <c r="F21">
-        <v>16.69881976243007</v>
+        <v>17.8222302313301</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.6613812439683</v>
+        <v>16.47809410107926</v>
       </c>
       <c r="C22">
-        <v>16.46476114448962</v>
+        <v>16.83000454441848</v>
       </c>
       <c r="D22">
-        <v>18.3440684731503</v>
+        <v>16.47112333957245</v>
       </c>
       <c r="E22">
-        <v>18.22980627337485</v>
+        <v>16.45767699027554</v>
       </c>
       <c r="F22">
-        <v>16.70532466981443</v>
+        <v>17.88212726454043</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.64412500921714</v>
+        <v>16.48785377980025</v>
       </c>
       <c r="C23">
-        <v>16.44492026922879</v>
+        <v>16.85730068469498</v>
       </c>
       <c r="D23">
-        <v>18.35034984983718</v>
+        <v>16.48329304325358</v>
       </c>
       <c r="E23">
-        <v>18.16167338685834</v>
+        <v>16.46841836374419</v>
       </c>
       <c r="F23">
-        <v>16.71452173854184</v>
+        <v>17.944333838274</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.62792749615133</v>
+        <v>16.50203144679007</v>
       </c>
       <c r="C24">
-        <v>16.42673656379036</v>
+        <v>16.88889364293478</v>
       </c>
       <c r="D24">
-        <v>18.35277791099712</v>
+        <v>16.5000824191988</v>
       </c>
       <c r="E24">
-        <v>18.08941891993653</v>
+        <v>16.48370473300537</v>
       </c>
       <c r="F24">
-        <v>16.72629987268263</v>
+        <v>18.00873911490108</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.61276991334946</v>
+        <v>16.52062407309115</v>
       </c>
       <c r="C25">
-        <v>16.41019203615221</v>
+        <v>16.92475954475171</v>
       </c>
       <c r="D25">
-        <v>18.35139235373185</v>
+        <v>16.521482607827</v>
       </c>
       <c r="E25">
-        <v>18.01378398618833</v>
+        <v>16.50352674748312</v>
       </c>
       <c r="F25">
-        <v>16.74054758409192</v>
+        <v>18.0752341304307</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>16.59863311602468</v>
+        <v>16.54362868690546</v>
       </c>
       <c r="C26">
-        <v>16.39526902440936</v>
+        <v>16.96487510515892</v>
       </c>
       <c r="D26">
-        <v>18.34623747229</v>
+        <v>16.54748484274943</v>
       </c>
       <c r="E26">
-        <v>17.93542121173607</v>
+        <v>16.52787514883317</v>
       </c>
       <c r="F26">
-        <v>16.75715305632583</v>
+        <v>18.14371174745637</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>16.58549752873747</v>
+        <v>16.5710423665434</v>
       </c>
       <c r="C27">
-        <v>16.38195004965772</v>
+        <v>17.00921761566622</v>
       </c>
       <c r="D27">
-        <v>18.33736214487754</v>
+        <v>16.57808043578614</v>
       </c>
       <c r="E27">
-        <v>17.85488969258601</v>
+        <v>16.55674077114113</v>
       </c>
       <c r="F27">
-        <v>16.77600420598236</v>
+        <v>18.21406660768407</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>16.57334311833687</v>
+        <v>16.60286223956994</v>
       </c>
       <c r="C28">
-        <v>16.37021791243112</v>
+        <v>17.05776489292199</v>
       </c>
       <c r="D28">
-        <v>18.32481983967037</v>
+        <v>16.61326076791335</v>
       </c>
       <c r="E28">
-        <v>17.77265655304902</v>
+        <v>16.5901145290943</v>
       </c>
       <c r="F28">
-        <v>16.79698875428241</v>
+        <v>18.28619509140896</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>16.56214933252016</v>
+        <v>16.63908547415212</v>
       </c>
       <c r="C29">
-        <v>16.36005556698917</v>
+        <v>17.11049529747302</v>
       </c>
       <c r="D29">
-        <v>18.30866860285494</v>
+        <v>16.65301727495926</v>
       </c>
       <c r="E29">
-        <v>17.68910356031557</v>
+        <v>16.62798741391103</v>
       </c>
       <c r="F29">
-        <v>16.81999429341924</v>
+        <v>18.35999527382526</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>16.55189502485268</v>
+        <v>16.67970927616804</v>
       </c>
       <c r="C30">
-        <v>16.35144616562591</v>
+        <v>17.16738766175787</v>
       </c>
       <c r="D30">
-        <v>18.28897103339371</v>
+        <v>16.69734143723179</v>
       </c>
       <c r="E30">
-        <v>17.6045368084983</v>
+        <v>16.67035048300272</v>
       </c>
       <c r="F30">
-        <v>16.84490835432014</v>
+        <v>18.43536686148657</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>16.54255841177129</v>
+        <v>16.72473088084213</v>
       </c>
       <c r="C31">
-        <v>16.34437299826638</v>
+        <v>17.22842131890929</v>
       </c>
       <c r="D31">
-        <v>18.26579427921836</v>
+        <v>16.74622476287785</v>
       </c>
       <c r="E31">
-        <v>17.51919777857635</v>
+        <v>16.71719485425451</v>
       </c>
       <c r="F31">
-        <v>16.87161847535114</v>
+        <v>18.51221125030292</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>16.53411700257664</v>
+        <v>16.77414754987362</v>
       </c>
       <c r="C32">
-        <v>16.3388194801463</v>
+        <v>17.29357604034991</v>
       </c>
       <c r="D32">
-        <v>18.2392099700189</v>
+        <v>16.79965877542853</v>
       </c>
       <c r="E32">
-        <v>17.4332743573584</v>
+        <v>16.7685116965896</v>
       </c>
       <c r="F32">
-        <v>16.90001226950709</v>
+        <v>18.5904313316564</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>16.52654753628024</v>
+        <v>16.82795656385879</v>
       </c>
       <c r="C33">
-        <v>16.33476912181566</v>
+        <v>17.36283204664709</v>
       </c>
       <c r="D33">
-        <v>18.20929418894609</v>
+        <v>16.85763499806774</v>
       </c>
       <c r="E33">
-        <v>17.34691099890334</v>
+        <v>16.82429222288971</v>
       </c>
       <c r="F33">
-        <v>16.92997748902837</v>
+        <v>18.66993154873747</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>16.51982592071085</v>
+        <v>16.88615521736303</v>
       </c>
       <c r="C34">
-        <v>16.33220550161048</v>
+        <v>17.43616996727588</v>
       </c>
       <c r="D34">
-        <v>18.17612740976531</v>
+        <v>16.92014493524726</v>
       </c>
       <c r="E34">
-        <v>17.2602175283233</v>
+        <v>16.88452768015754</v>
       </c>
       <c r="F34">
-        <v>16.96140208993963</v>
+        <v>18.75061795567692</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>16.51392716004525</v>
+        <v>16.94874081247595</v>
       </c>
       <c r="C35">
-        <v>16.33111222004705</v>
+        <v>17.51357083364003</v>
       </c>
       <c r="D35">
-        <v>18.13979439821696</v>
+        <v>16.98718005784228</v>
       </c>
       <c r="E35">
-        <v>17.17327657608422</v>
+        <v>16.94920934046027</v>
       </c>
       <c r="F35">
-        <v>16.9941742923072</v>
+        <v>18.83239807082099</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>16.50882528130626</v>
+        <v>17.0157106516184</v>
       </c>
       <c r="C36">
-        <v>16.33147288395719</v>
+        <v>17.59501605254047</v>
       </c>
       <c r="D36">
-        <v>18.10038409688259</v>
+        <v>17.0587317800194</v>
       </c>
       <c r="E36">
-        <v>17.08614951755241</v>
+        <v>17.01832849134114</v>
       </c>
       <c r="F36">
-        <v>17.02818263716058</v>
+        <v>18.91518093415019</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>16.50449326078553</v>
+        <v>17.0870620317846</v>
       </c>
       <c r="C37">
-        <v>16.33327103481094</v>
+        <v>17.68048739393825</v>
       </c>
       <c r="D37">
-        <v>18.0579894916698</v>
+        <v>17.13479143631398</v>
       </c>
       <c r="E37">
-        <v>16.99888118963321</v>
+        <v>17.09187642203233</v>
       </c>
       <c r="F37">
-        <v>17.06331604021576</v>
+        <v>18.99887703897714</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>16.50090292120503</v>
+        <v>17.16279223468962</v>
       </c>
       <c r="C38">
-        <v>16.3364901389154</v>
+        <v>17.76996696654544</v>
       </c>
       <c r="D38">
-        <v>18.0127074493428</v>
+        <v>17.21535026211068</v>
       </c>
       <c r="E38">
-        <v>16.91150362530285</v>
+        <v>17.16984441562609</v>
       </c>
       <c r="F38">
-        <v>17.09946384451946</v>
+        <v>19.08339831863858</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>16.49802487029101</v>
+        <v>17.24289852122223</v>
       </c>
       <c r="C39">
-        <v>16.34111350203406</v>
+        <v>17.86343720584499</v>
       </c>
       <c r="D39">
-        <v>17.96463851019693</v>
+        <v>17.30039935591379</v>
       </c>
       <c r="E39">
-        <v>16.82403891888239</v>
+        <v>17.25222372950883</v>
       </c>
       <c r="F39">
-        <v>17.13651586093965</v>
+        <v>19.16865813135604</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>16.49582836697265</v>
+        <v>17.32737811771647</v>
       </c>
       <c r="C40">
-        <v>16.34712424902137</v>
+        <v>17.96088084941784</v>
       </c>
       <c r="D40">
-        <v>17.91388663375326</v>
+        <v>17.389929656341</v>
       </c>
       <c r="E40">
-        <v>16.73650136090515</v>
+        <v>17.33900558551638</v>
       </c>
       <c r="F40">
-        <v>17.17436240881945</v>
+        <v>19.25457122880897</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>16.4942812482101</v>
+        <v>17.41622820910819</v>
       </c>
       <c r="C41">
-        <v>16.35450523271156</v>
+        <v>18.06228092086997</v>
       </c>
       <c r="D41">
-        <v>17.8605588975662</v>
+        <v>17.48393190129054</v>
       </c>
       <c r="E41">
-        <v>16.64889908717948</v>
+        <v>17.4301811502254</v>
       </c>
       <c r="F41">
-        <v>17.21289435305146</v>
+        <v>19.34105377243316</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>16.49334980260398</v>
+        <v>17.50944592461301</v>
       </c>
       <c r="C42">
-        <v>16.36323899190333</v>
+        <v>18.167620708331</v>
       </c>
       <c r="D42">
-        <v>17.80476514377559</v>
+        <v>17.58239658259293</v>
       </c>
       <c r="E42">
-        <v>16.5612352804661</v>
+        <v>17.52574151334311</v>
       </c>
       <c r="F42">
-        <v>17.25200312903382</v>
+        <v>19.42802328810577</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>16.49299863554745</v>
+        <v>17.60702832304284</v>
       </c>
       <c r="C43">
-        <v>16.37330765381351</v>
+        <v>18.27688373852208</v>
       </c>
       <c r="D43">
-        <v>17.74661756708132</v>
+        <v>17.6853139135174</v>
       </c>
       <c r="E43">
-        <v>16.47350908557017</v>
+        <v>17.62567767495473</v>
       </c>
       <c r="F43">
-        <v>17.29158076349809</v>
+        <v>19.51539868678204</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>16.49319057837185</v>
+        <v>17.70897238307248</v>
       </c>
       <c r="C44">
-        <v>16.38469286048447</v>
+        <v>18.39005375987868</v>
       </c>
       <c r="D44">
-        <v>17.68623025734788</v>
+        <v>17.79267375551557</v>
       </c>
       <c r="E44">
-        <v>16.38571624644262</v>
+        <v>17.72998050796948</v>
       </c>
       <c r="F44">
-        <v>17.33151988877679</v>
+        <v>19.60310022973024</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>16.4938864856474</v>
+        <v>17.81527497557909</v>
       </c>
       <c r="C45">
-        <v>16.39737566648169</v>
+        <v>18.50711470426268</v>
       </c>
       <c r="D45">
-        <v>17.62371866060082</v>
+        <v>17.90446556627915</v>
       </c>
       <c r="E45">
-        <v>16.29784957938291</v>
+        <v>17.83864074436864</v>
       </c>
       <c r="F45">
-        <v>17.37171375611756</v>
+        <v>19.6910495297301</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>16.49504513442378</v>
+        <v>17.92593285574534</v>
       </c>
       <c r="C46">
-        <v>16.41133641391892</v>
+        <v>18.62805067233062</v>
       </c>
       <c r="D46">
-        <v>17.55919899745259</v>
+        <v>18.02067833230695</v>
       </c>
       <c r="E46">
-        <v>16.20989930820046</v>
+        <v>17.9516489320224</v>
       </c>
       <c r="F46">
-        <v>17.4120562260004</v>
+        <v>19.77916953392802</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>16.49662301299439</v>
+        <v>18.04094262623026</v>
       </c>
       <c r="C47">
-        <v>16.42655463717818</v>
+        <v>18.75284588103099</v>
       </c>
       <c r="D47">
-        <v>17.49278762594218</v>
+        <v>18.14130046027458</v>
       </c>
       <c r="E47">
-        <v>16.12185330675658</v>
+        <v>18.06899540207817</v>
       </c>
       <c r="F47">
-        <v>17.45244176240493</v>
+        <v>19.86738451604626</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>16.49857413409267</v>
+        <v>18.16030071960946</v>
       </c>
       <c r="C48">
-        <v>16.44300884961181</v>
+        <v>18.88148465427242</v>
       </c>
       <c r="D48">
-        <v>17.42460036118365</v>
+        <v>18.26631971325566</v>
       </c>
       <c r="E48">
-        <v>16.03369726252408</v>
+        <v>18.19067023433253</v>
       </c>
       <c r="F48">
-        <v>17.49276541977321</v>
+        <v>19.95562007262061</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>16.50084987418446</v>
+        <v>18.2840033628543</v>
       </c>
       <c r="C49">
-        <v>16.46067648046823</v>
+        <v>19.01395134353337</v>
       </c>
       <c r="D49">
-        <v>17.35475176416153</v>
+        <v>18.39572306596724</v>
       </c>
       <c r="E49">
-        <v>15.94541479849965</v>
+        <v>18.31666318710798</v>
       </c>
       <c r="F49">
-        <v>17.53292281259038</v>
+        <v>20.0438031082066</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>16.50339865891212</v>
+        <v>18.41204652759426</v>
       </c>
       <c r="C50">
-        <v>16.47953351127197</v>
+        <v>19.1502302916781</v>
       </c>
       <c r="D50">
-        <v>17.28335441533748</v>
+        <v>18.52949655772886</v>
       </c>
       <c r="E50">
-        <v>15.85698756522721</v>
+        <v>18.44696367231331</v>
       </c>
       <c r="F50">
-        <v>17.57281007862149</v>
+        <v>20.13186183842197</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>16.50616585097681</v>
+        <v>18.54442591379134</v>
       </c>
       <c r="C51">
-        <v>16.49955449119601</v>
+        <v>19.29030577232363</v>
       </c>
       <c r="D51">
-        <v>17.2105181900734</v>
+        <v>18.66762519199547</v>
       </c>
       <c r="E51">
-        <v>15.76839533298909</v>
+        <v>18.58156065285275</v>
       </c>
       <c r="F51">
-        <v>17.61232383353546</v>
+        <v>20.21972577696707</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>16.50909329018546</v>
+        <v>18.68113685257149</v>
       </c>
       <c r="C52">
-        <v>16.52071209376245</v>
+        <v>19.43416191015246</v>
       </c>
       <c r="D52">
-        <v>17.1363495535262</v>
+        <v>18.8100926507638</v>
       </c>
       <c r="E52">
-        <v>15.67961607109147</v>
+        <v>18.72044259034979</v>
       </c>
       <c r="F52">
-        <v>17.65136112813157</v>
+        <v>20.30732573596504</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>16.52729828902919</v>
+        <v>18.82217428876463</v>
       </c>
       <c r="C53">
-        <v>16.5563838877092</v>
+        <v>19.58178258546851</v>
       </c>
       <c r="D53">
-        <v>17.0810960179096</v>
+        <v>18.9568811414958</v>
       </c>
       <c r="E53">
-        <v>15.62178161906209</v>
+        <v>18.86359734759775</v>
       </c>
       <c r="F53">
-        <v>17.70081935390515</v>
+        <v>20.39459381981606</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>16.57546114069472</v>
+        <v>18.96753265834387</v>
       </c>
       <c r="C54">
-        <v>16.61975381099006</v>
+        <v>19.73315134096013</v>
       </c>
       <c r="D54">
-        <v>17.06248878809474</v>
+        <v>19.10797109793097</v>
       </c>
       <c r="E54">
-        <v>15.62027845622127</v>
+        <v>19.01101204258685</v>
       </c>
       <c r="F54">
-        <v>17.77093434979273</v>
+        <v>20.48146342009571</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>16.65286216647489</v>
+        <v>19.11720582143172</v>
       </c>
       <c r="C55">
-        <v>16.71051125922663</v>
+        <v>19.88825122322304</v>
       </c>
       <c r="D55">
-        <v>17.07783100527536</v>
+        <v>19.26334077610811</v>
       </c>
       <c r="E55">
-        <v>15.6699958964606</v>
+        <v>19.16267299620419</v>
       </c>
       <c r="F55">
-        <v>17.86061224955027</v>
+        <v>20.56786921461526</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>16.75875970881533</v>
+        <v>19.27118695185329</v>
       </c>
       <c r="C56">
-        <v>16.82834835910166</v>
+        <v>20.04706460066278</v>
       </c>
       <c r="D56">
-        <v>17.12492233054659</v>
+        <v>19.42296602047544</v>
       </c>
       <c r="E56">
-        <v>15.76748833848836</v>
+        <v>19.31856546406271</v>
       </c>
       <c r="F56">
-        <v>17.9687687217539</v>
+        <v>20.65374716088881</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>16.89237511174035</v>
+        <v>19.42946833054179</v>
       </c>
       <c r="C57">
-        <v>16.97295195655007</v>
+        <v>20.20957298004621</v>
       </c>
       <c r="D57">
-        <v>17.20175724019234</v>
+        <v>19.58681958748553</v>
       </c>
       <c r="E57">
-        <v>15.90983699775069</v>
+        <v>19.4786735808474</v>
       </c>
       <c r="F57">
-        <v>18.09432554069464</v>
+        <v>20.73903449601065</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>17.0528814122398</v>
+        <v>19.59204132133335</v>
       </c>
       <c r="C58">
-        <v>17.14399578087201</v>
+        <v>20.37575671091618</v>
       </c>
       <c r="D58">
-        <v>17.30643140218412</v>
+        <v>19.75487062641817</v>
       </c>
       <c r="E58">
-        <v>16.09429769160867</v>
+        <v>19.64297998317693</v>
       </c>
       <c r="F58">
-        <v>18.23620884850602</v>
+        <v>20.82366973170139</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>17.23939346227568</v>
+        <v>19.75889598352921</v>
       </c>
       <c r="C59">
-        <v>17.34113292520333</v>
+        <v>20.54559460784277</v>
       </c>
       <c r="D59">
-        <v>17.43710038041559</v>
+        <v>19.92708409169429</v>
       </c>
       <c r="E59">
-        <v>16.31815049929348</v>
+        <v>19.81146558644886</v>
       </c>
       <c r="F59">
-        <v>18.39334758620108</v>
+        <v>20.90759265361249</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>17.45095851171854</v>
+        <v>19.93002087010836</v>
       </c>
       <c r="C60">
-        <v>17.56398714020715</v>
+        <v>20.71906362432526</v>
       </c>
       <c r="D60">
-        <v>17.59195691082715</v>
+        <v>20.10341951093711</v>
       </c>
       <c r="E60">
-        <v>16.57862482044352</v>
+        <v>19.98410922524316</v>
       </c>
       <c r="F60">
-        <v>18.56467211465838</v>
+        <v>20.99074431865668</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>17.68654668436557</v>
+        <v>20.10540268540353</v>
       </c>
       <c r="C61">
-        <v>17.8121434327921</v>
+        <v>20.89613808785564</v>
       </c>
       <c r="D61">
-        <v>17.76921617060872</v>
+        <v>20.28383050762917</v>
       </c>
       <c r="E61">
-        <v>16.87285962350272</v>
+        <v>20.16088722700225</v>
       </c>
       <c r="F61">
-        <v>18.74911254285766</v>
+        <v>21.07306705276853</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>17.94504050222501</v>
+        <v>20.28502586839538</v>
       </c>
       <c r="C62">
-        <v>18.08513765836178</v>
+        <v>21.07678903806183</v>
       </c>
       <c r="D62">
-        <v>17.96710470887836</v>
+        <v>20.46826274032304</v>
       </c>
       <c r="E62">
-        <v>17.19788325652918</v>
+        <v>20.34177287753483</v>
       </c>
       <c r="F62">
-        <v>18.94559726229798</v>
+        <v>21.15450445031167</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>18.22522417650582</v>
+        <v>20.46887204022865</v>
       </c>
       <c r="C63">
-        <v>18.38244373208376</v>
+        <v>21.26098328363218</v>
       </c>
       <c r="D63">
-        <v>18.18385130779245</v>
+        <v>20.65665256738644</v>
       </c>
       <c r="E63">
-        <v>17.55060585154429</v>
+        <v>20.526735708461</v>
       </c>
       <c r="F63">
-        <v>19.15305158378101</v>
+        <v>21.23500137090306</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>18.52577169812156</v>
+        <v>20.65691930231099</v>
       </c>
       <c r="C64">
-        <v>18.70345856370711</v>
+        <v>21.44868214020538</v>
       </c>
       <c r="D64">
-        <v>18.41767875472959</v>
+        <v>20.84892502112235</v>
       </c>
       <c r="E64">
-        <v>17.92782091321453</v>
+        <v>20.71574063792207</v>
       </c>
       <c r="F64">
-        <v>19.37039624911155</v>
+        <v>21.31450393915585</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>18.84523398663426</v>
+        <v>20.84914130492484</v>
       </c>
       <c r="C65">
-        <v>19.0474839966647</v>
+        <v>21.63983976661044</v>
       </c>
       <c r="D65">
-        <v>18.66679619249002</v>
+        <v>21.044991307153</v>
       </c>
       <c r="E65">
-        <v>18.32621447791505</v>
+        <v>20.90874686062252</v>
       </c>
       <c r="F65">
-        <v>19.59654586704272</v>
+        <v>21.39295954110187</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>19.18202502318925</v>
+        <v>21.04550615441123</v>
       </c>
       <c r="C66">
-        <v>19.41370482155472</v>
+        <v>21.83440100840969</v>
       </c>
       <c r="D66">
-        <v>18.92939172461859</v>
+        <v>21.24474564982017</v>
       </c>
       <c r="E66">
-        <v>18.74238097026531</v>
+        <v>21.10570646752907</v>
       </c>
       <c r="F66">
-        <v>19.83040740664364</v>
+        <v>21.47031682350622</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>19.53440707647808</v>
+        <v>21.2459747998479</v>
       </c>
       <c r="C67">
-        <v>19.80116216759484</v>
+        <v>22.03229860026872</v>
       </c>
       <c r="D67">
-        <v>19.20362531793296</v>
+        <v>21.44806154243321</v>
       </c>
       <c r="E67">
-        <v>19.17284462571332</v>
+        <v>21.30656266785822</v>
       </c>
       <c r="F67">
-        <v>20.07087872621448</v>
+        <v>21.54652569148763</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>19.90047540287198</v>
+        <v>21.45049904826032</v>
       </c>
       <c r="C68">
-        <v>20.20872131925817</v>
+        <v>22.23344952223834</v>
       </c>
       <c r="D68">
-        <v>19.48762222128182</v>
+        <v>21.65478689137369</v>
       </c>
       <c r="E68">
-        <v>19.61408630880793</v>
+        <v>21.51124740204986</v>
       </c>
       <c r="F68">
-        <v>20.31684714265717</v>
+        <v>21.62153730627179</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>20.27814300718195</v>
+        <v>21.65901889268767</v>
       </c>
       <c r="C69">
-        <v>20.63503292047717</v>
+        <v>22.43775026259905</v>
       </c>
       <c r="D69">
-        <v>19.77946725000522</v>
+        <v>21.86473835516</v>
       </c>
       <c r="E69">
-        <v>20.06257492660581</v>
+        <v>21.71967838517221</v>
       </c>
       <c r="F69">
-        <v>20.56718806990848</v>
+        <v>21.69530408479831</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>20.66512624741253</v>
+        <v>21.87145926982934</v>
       </c>
       <c r="C70">
-        <v>21.07848674483016</v>
+        <v>22.6450706980342</v>
       </c>
       <c r="D70">
-        <v>20.07720052105035</v>
+        <v>22.07769443340156</v>
       </c>
       <c r="E70">
-        <v>20.51480264854063</v>
+        <v>21.931755312416</v>
       </c>
       <c r="F70">
-        <v>20.82076380813144</v>
+        <v>21.76777969593343</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>21.05893261643405</v>
+        <v>22.08772468515166</v>
       </c>
       <c r="C71">
-        <v>21.53715747844069</v>
+        <v>22.85524625130882</v>
       </c>
       <c r="D71">
-        <v>20.37881540194011</v>
+        <v>22.29338718916768</v>
       </c>
       <c r="E71">
-        <v>20.96732310853633</v>
+        <v>22.14735417250729</v>
       </c>
       <c r="F71">
-        <v>21.076422653778</v>
+        <v>21.83891905850606</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>21.45685254259611</v>
+        <v>22.3076931771916</v>
       </c>
       <c r="C72">
-        <v>22.00874268856143</v>
+        <v>23.06806815028614</v>
       </c>
       <c r="D72">
-        <v>20.6822614206087</v>
+        <v>22.5114924901241</v>
       </c>
       <c r="E72">
-        <v>21.41679133480853</v>
+        <v>22.36632096978179</v>
       </c>
       <c r="F72">
-        <v>21.33299834850753</v>
+        <v>21.90867833702007</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>21.85595794417565</v>
+        <v>22.53120797510172</v>
       </c>
       <c r="C73">
-        <v>22.49049432977881</v>
+        <v>23.28327054018979</v>
       </c>
       <c r="D73">
-        <v>20.98545261098037</v>
+        <v>22.73161864399825</v>
       </c>
       <c r="E73">
-        <v>21.86000417729492</v>
+        <v>22.58846312727476</v>
       </c>
       <c r="F73">
-        <v>21.58931010011111</v>
+        <v>21.97701494439385</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>22.25311085935229</v>
+        <v>22.75806596415205</v>
       </c>
       <c r="C74">
-        <v>22.9791476847554</v>
+        <v>23.50051498764207</v>
       </c>
       <c r="D74">
-        <v>21.28628395713458</v>
+        <v>22.95329429140456</v>
       </c>
       <c r="E74">
-        <v>22.29394024329934</v>
+        <v>22.81353803859905</v>
       </c>
       <c r="F74">
-        <v>21.84416336577801</v>
+        <v>22.04388752979224</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>22.64498533233878</v>
+        <v>22.98800224506258</v>
       </c>
       <c r="C75">
-        <v>23.47085475420385</v>
+        <v>23.71937227460743</v>
       </c>
       <c r="D75">
-        <v>21.58265913071453</v>
+        <v>23.17595309803961</v>
       </c>
       <c r="E75">
-        <v>22.71579741517524</v>
+        <v>23.04123870459537</v>
       </c>
       <c r="F75">
-        <v>22.09635131205458</v>
+        <v>22.1092559817849</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>23.02811032931034</v>
+        <v>23.22066975634857</v>
       </c>
       <c r="C76">
-        <v>23.9611338822922</v>
+        <v>23.93930009268206</v>
       </c>
       <c r="D76">
-        <v>21.87253076899001</v>
+        <v>23.39891986411002</v>
       </c>
       <c r="E76">
-        <v>23.12302641914795</v>
+        <v>23.27117565763949</v>
       </c>
       <c r="F76">
-        <v>22.34465877038744</v>
+        <v>22.17308142711043</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>23.39893276537968</v>
+        <v>23.45561246388961</v>
       </c>
       <c r="C77">
-        <v>24.44485360842767</v>
+        <v>24.15961765561614</v>
       </c>
       <c r="D77">
-        <v>22.15395248444147</v>
+        <v>23.62139626299118</v>
       </c>
       <c r="E77">
-        <v>23.51335971178111</v>
+        <v>23.50285472250993</v>
       </c>
       <c r="F77">
-        <v>22.58786713470245</v>
+        <v>22.23532621124567</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>23.75390544020361</v>
+        <v>23.69223066919975</v>
       </c>
       <c r="C78">
-        <v>24.91627411087051</v>
+        <v>24.37947816261716</v>
       </c>
       <c r="D78">
-        <v>22.42513946315049</v>
+        <v>23.84244764114873</v>
       </c>
       <c r="E78">
-        <v>23.88483401083611</v>
+        <v>23.73565044583583</v>
       </c>
       <c r="F78">
-        <v>22.82476170141107</v>
+        <v>22.2959539165391</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>24.08960227951702</v>
+        <v>23.92973776383215</v>
       </c>
       <c r="C79">
-        <v>25.36917209974191</v>
+        <v>24.59784054173987</v>
       </c>
       <c r="D79">
-        <v>22.68452990522982</v>
+        <v>24.06099296735458</v>
       </c>
       <c r="E79">
-        <v>24.23580586989079</v>
+        <v>23.96877588239941</v>
       </c>
       <c r="F79">
-        <v>23.05414216102366</v>
+        <v>22.35492934104261</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>24.40285233111261</v>
+        <v>24.16710746667501</v>
       </c>
       <c r="C80">
-        <v>25.79707382909094</v>
+        <v>24.81344352427207</v>
       </c>
       <c r="D80">
-        <v>22.93083649537492</v>
+        <v>24.27580057283614</v>
       </c>
       <c r="E80">
-        <v>24.56495955321199</v>
+        <v>24.20124953765761</v>
       </c>
       <c r="F80">
-        <v>23.27483658087498</v>
+        <v>22.41221849108823</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>24.6908838363236</v>
+        <v>24.40301233930508</v>
       </c>
       <c r="C81">
-        <v>26.19360361148848</v>
+        <v>25.02478635997937</v>
       </c>
       <c r="D81">
-        <v>23.16307865515781</v>
+        <v>24.48549175573276</v>
       </c>
       <c r="E81">
-        <v>24.87130724814906</v>
+        <v>24.43186380059637</v>
       </c>
       <c r="F81">
-        <v>23.48571904741809</v>
+        <v>22.46778859453743</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>24.95146266764383</v>
+        <v>24.63576315570081</v>
       </c>
       <c r="C82">
-        <v>26.55292944378146</v>
+        <v>25.23012287711385</v>
       </c>
       <c r="D82">
-        <v>23.38059034076539</v>
+        <v>24.68855502314214</v>
       </c>
       <c r="E82">
-        <v>25.15418186593174</v>
+        <v>24.6591581961645</v>
       </c>
       <c r="F82">
-        <v>23.68573097532109</v>
+        <v>22.52160807193905</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>25.18300575878732</v>
+        <v>24.86325468680512</v>
       </c>
       <c r="C83">
-        <v>26.87025174017658</v>
+        <v>25.42747483386463</v>
       </c>
       <c r="D83">
-        <v>23.58300333642132</v>
+        <v>24.8833735162745</v>
       </c>
       <c r="E83">
-        <v>25.41322257864647</v>
+        <v>24.88140400178476</v>
       </c>
       <c r="F83">
-        <v>23.87390559287714</v>
+        <v>22.57364654518679</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>25.38465211191743</v>
+        <v>25.08293599244182</v>
       </c>
       <c r="C84">
-        <v>27.14224790663577</v>
+        <v>25.61467366102362</v>
       </c>
       <c r="D84">
-        <v>23.77021268273337</v>
+        <v>25.06826693923119</v>
       </c>
       <c r="E84">
-        <v>25.64835443694002</v>
+        <v>25.09660896022112</v>
       </c>
       <c r="F84">
-        <v>24.04939424551394</v>
+        <v>22.62387483178788</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>25.55627814940478</v>
+        <v>25.29183106922626</v>
       </c>
       <c r="C85">
-        <v>27.36737081203752</v>
+        <v>25.78943494732112</v>
       </c>
       <c r="D85">
-        <v>23.94233194037765</v>
+        <v>25.24154802911901</v>
       </c>
       <c r="E85">
-        <v>25.8597629377643</v>
+        <v>25.30254971537196</v>
       </c>
       <c r="F85">
-        <v>24.21149237533807</v>
+        <v>22.67226491728948</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>25.69710181180425</v>
+        <v>25.48663345145945</v>
       </c>
       <c r="C86">
-        <v>27.54437170019622</v>
+        <v>25.9494702480139</v>
       </c>
       <c r="D86">
-        <v>24.09718667239608</v>
+        <v>25.40159096149338</v>
       </c>
       <c r="E86">
-        <v>26.04455037329519</v>
+        <v>25.49684002678196</v>
       </c>
       <c r="F86">
-        <v>24.35804482437701</v>
+        <v>22.71878997897062</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>25.80755156769098</v>
+        <v>25.66389959524172</v>
       </c>
       <c r="C87">
-        <v>27.67462602968007</v>
+        <v>26.09262325816366</v>
       </c>
       <c r="D87">
-        <v>24.23330461628145</v>
+        <v>25.54690677747751</v>
       </c>
       <c r="E87">
-        <v>26.20094985456266</v>
+        <v>25.67703704158924</v>
       </c>
       <c r="F87">
-        <v>24.48748229007834</v>
+        <v>22.76342435466806</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>25.89004603664437</v>
+        <v>25.82032953028586</v>
       </c>
       <c r="C88">
-        <v>27.76260772771446</v>
+        <v>26.21702281999519</v>
       </c>
       <c r="D88">
-        <v>24.35196599523038</v>
+        <v>25.67621958146427</v>
       </c>
       <c r="E88">
-        <v>26.33100684893153</v>
+        <v>25.84078144793054</v>
       </c>
       <c r="F88">
-        <v>24.60020352869141</v>
+        <v>22.80614353403034</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>25.94716285345888</v>
+        <v>25.95311352822861</v>
       </c>
       <c r="C89">
-        <v>27.81335384486568</v>
+        <v>26.32122903679904</v>
       </c>
       <c r="D89">
-        <v>24.45440209528465</v>
+        <v>25.78853410278627</v>
       </c>
       <c r="E89">
-        <v>26.4367224192743</v>
+        <v>25.98595907871678</v>
       </c>
       <c r="F89">
-        <v>24.69673678002689</v>
+        <v>22.84692417124506</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>25.98152161756985</v>
+        <v>26.06026710502499</v>
       </c>
       <c r="C90">
-        <v>27.83205454316926</v>
+        <v>26.40434615880488</v>
       </c>
       <c r="D90">
-        <v>24.54178324573545</v>
+        <v>25.88318774312264</v>
       </c>
       <c r="E90">
-        <v>26.52003890304489</v>
+        <v>26.1108607078596</v>
       </c>
       <c r="F90">
-        <v>24.77772530714019</v>
+        <v>22.88574404609704</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>25.99568691120454</v>
+        <v>26.14087246722808</v>
       </c>
       <c r="C91">
-        <v>27.82372536173957</v>
+        <v>26.4660836693579</v>
       </c>
       <c r="D91">
-        <v>24.6152122843573</v>
+        <v>25.95987628509188</v>
       </c>
       <c r="E91">
-        <v>26.58282488949282</v>
+        <v>26.21431526215075</v>
       </c>
       <c r="F91">
-        <v>24.84390574679751</v>
+        <v>22.92258207650918</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>25.99209522734736</v>
+        <v>26.19515870259558</v>
       </c>
       <c r="C92">
-        <v>27.79297272124459</v>
+        <v>26.50675447729713</v>
       </c>
       <c r="D92">
-        <v>24.67572184992662</v>
+        <v>26.01865737163121</v>
       </c>
       <c r="E92">
-        <v>26.62686308363322</v>
+        <v>26.2957712611894</v>
       </c>
       <c r="F92">
-        <v>24.89608412977643</v>
+        <v>22.95741830547013</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>25.97300638927141</v>
+        <v>26.22440273144128</v>
       </c>
       <c r="C93">
-        <v>27.74387276526281</v>
+        <v>26.52721287547508</v>
       </c>
       <c r="D93">
-        <v>24.72427423092834</v>
+        <v>26.05992876564551</v>
       </c>
       <c r="E93">
-        <v>26.65384191891036</v>
+        <v>26.35531420601891</v>
       </c>
       <c r="F93">
-        <v>24.93510963020658</v>
+        <v>22.99023386957279</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>25.94047577242873</v>
+        <v>26.23068973012057</v>
       </c>
       <c r="C94">
-        <v>27.67992022604589</v>
+        <v>26.52874790425286</v>
       </c>
       <c r="D94">
-        <v>24.76176302978898</v>
+        <v>26.08438294505975</v>
       </c>
       <c r="E94">
-        <v>26.66534949001051</v>
+        <v>26.39361837553187</v>
       </c>
       <c r="F94">
-        <v>24.96185183881875</v>
+        <v>23.02101102199909</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>25.89634087931806</v>
+        <v>26.21660604748745</v>
       </c>
       <c r="C95">
-        <v>27.6040440654723</v>
+        <v>26.51295305565637</v>
       </c>
       <c r="D95">
-        <v>24.78901605127011</v>
+        <v>26.09294937979127</v>
       </c>
       <c r="E95">
-        <v>26.662870418074</v>
+        <v>26.41184692052625</v>
       </c>
       <c r="F95">
-        <v>24.97717954987191</v>
+        <v>23.04973309535362</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>25.84222668366298</v>
+        <v>26.18493930031448</v>
       </c>
       <c r="C96">
-        <v>27.5186564902058</v>
+        <v>26.48159387846731</v>
       </c>
       <c r="D96">
-        <v>24.80679890566676</v>
+        <v>26.08672984480223</v>
       </c>
       <c r="E96">
-        <v>26.64778418924204</v>
+        <v>26.41152207156586</v>
       </c>
       <c r="F96">
-        <v>24.9819436733283</v>
+        <v>23.07638449221032</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>25.77955514327025</v>
+        <v>26.13843651815102</v>
       </c>
       <c r="C97">
-        <v>27.425716927928</v>
+        <v>26.43649018749558</v>
       </c>
       <c r="D97">
-        <v>24.81581879748063</v>
+        <v>26.0669336685397</v>
       </c>
       <c r="E97">
-        <v>26.6213654698958</v>
+        <v>26.39438717501454</v>
       </c>
       <c r="F97">
-        <v>24.97696462861345</v>
+        <v>23.10095069211985</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>25.70956082440355</v>
+        <v>26.07964051138551</v>
       </c>
       <c r="C98">
-        <v>27.32680040943599</v>
+        <v>26.37942245136732</v>
       </c>
       <c r="D98">
-        <v>24.81672845379563</v>
+        <v>26.03481914575935</v>
       </c>
       <c r="E98">
-        <v>26.58478650734628</v>
+        <v>26.36228053441412</v>
       </c>
       <c r="F98">
-        <v>24.96302359165459</v>
+        <v>23.12341821073961</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>25.6333085314752</v>
+        <v>26.0108004775975</v>
       </c>
       <c r="C99">
-        <v>27.2231643552244</v>
+        <v>26.31206562859206</v>
       </c>
       <c r="D99">
-        <v>24.81013001592073</v>
+        <v>25.99164413733993</v>
       </c>
       <c r="E99">
-        <v>26.53912062063774</v>
+        <v>26.31703165600178</v>
       </c>
       <c r="F99">
-        <v>24.94085667684869</v>
+        <v>23.14377461059416</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>25.55171341326082</v>
+        <v>25.93384045667393</v>
       </c>
       <c r="C100">
-        <v>27.11580753058055</v>
+        <v>26.23594836082535</v>
       </c>
       <c r="D100">
-        <v>24.7965788568046</v>
+        <v>25.93862759502916</v>
       </c>
       <c r="E100">
-        <v>26.4853465065221</v>
+        <v>26.26038552953088</v>
       </c>
       <c r="F100">
-        <v>24.91115169416637</v>
+        <v>23.16200848128172</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>25.46555944187597</v>
+        <v>25.85036623583578</v>
       </c>
       <c r="C101">
-        <v>27.00552038059137</v>
+        <v>26.15243316797896</v>
       </c>
       <c r="D101">
-        <v>24.77658721170336</v>
+        <v>25.87692181044956</v>
       </c>
       <c r="E101">
-        <v>26.42435309475498</v>
+        <v>26.19395330626844</v>
       </c>
       <c r="F101">
-        <v>24.87454710415689</v>
+        <v>23.17810941049233</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>25.37551601513804</v>
+        <v>25.76169398474051</v>
       </c>
       <c r="C102">
-        <v>26.89292748351737</v>
+        <v>26.06271225568834</v>
       </c>
       <c r="D102">
-        <v>24.75062758190977</v>
+        <v>25.8075945777923</v>
       </c>
       <c r="E102">
-        <v>26.35694503498513</v>
+        <v>26.11918557492554</v>
       </c>
       <c r="F102">
-        <v>24.83163262716852</v>
+        <v>23.19206799834833</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>25.28215370620814</v>
+        <v>25.66888849851866</v>
       </c>
       <c r="C103">
-        <v>26.77852183120131</v>
+        <v>25.96781383934552</v>
       </c>
       <c r="D103">
-        <v>24.7191359159811</v>
+        <v>25.73161951490887</v>
       </c>
       <c r="E103">
-        <v>26.28384847838979</v>
+        <v>26.03736338006062</v>
       </c>
       <c r="F103">
-        <v>24.78295071315737</v>
+        <v>23.20387582088946</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>25.1859594341672</v>
+        <v>25.5728031807752</v>
       </c>
       <c r="C104">
-        <v>26.66269262187388</v>
+        <v>25.86861481478822</v>
       </c>
       <c r="D104">
-        <v>24.68251449294399</v>
+        <v>25.64987269845566</v>
       </c>
       <c r="E104">
-        <v>26.20571689055391</v>
+        <v>25.94960089338877</v>
       </c>
       <c r="F104">
-        <v>24.7289987497811</v>
+        <v>23.21352541952642</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>25.08734806033871</v>
+        <v>25.47411776215056</v>
       </c>
       <c r="C105">
-        <v>26.54574723670893</v>
+        <v>25.76585661093991</v>
       </c>
       <c r="D105">
-        <v>24.64113467092234</v>
+        <v>25.56313406940371</v>
       </c>
       <c r="E105">
-        <v>26.12313681081537</v>
+        <v>25.85685590651774</v>
       </c>
       <c r="F105">
-        <v>24.67023173794993</v>
+        <v>23.22101030002124</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>24.98667282840885</v>
+        <v>25.37337154659946</v>
       </c>
       <c r="C106">
-        <v>26.42792879998555</v>
+        <v>25.66016188058789</v>
       </c>
       <c r="D106">
-        <v>24.59533941669224</v>
+        <v>25.47209195837485</v>
       </c>
       <c r="E106">
-        <v>26.03663349762079</v>
+        <v>25.75994444389338</v>
       </c>
       <c r="F106">
-        <v>24.60706517716654</v>
+        <v>23.2263248955266</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>24.88423469350465</v>
+        <v>25.27099134115046</v>
       </c>
       <c r="C107">
-        <v>26.30942985589438</v>
+        <v>25.55205102240902</v>
       </c>
       <c r="D107">
-        <v>24.54544562326022</v>
+        <v>25.37734961412203</v>
       </c>
       <c r="E107">
-        <v>25.94667637125499</v>
+        <v>25.65955701057203</v>
       </c>
       <c r="F107">
-        <v>24.53987799541207</v>
+        <v>23.22946457147323</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>24.78029049130184</v>
+        <v>25.16731440425684</v>
       </c>
       <c r="C108">
-        <v>26.19040321323872</v>
+        <v>25.44195748976654</v>
       </c>
       <c r="D108">
-        <v>24.491746233359</v>
+        <v>25.27943272632875</v>
       </c>
       <c r="E108">
-        <v>25.85368417872675</v>
+        <v>25.5562749409627</v>
       </c>
       <c r="F108">
-        <v>24.4690154653295</v>
+        <v>23.23042560242277</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>24.6750596755209</v>
+        <v>25.06260728422027</v>
       </c>
       <c r="C109">
-        <v>26.07097037728571</v>
+        <v>25.33024142932418</v>
       </c>
       <c r="D109">
-        <v>24.43451217802347</v>
+        <v>25.17879726909531</v>
       </c>
       <c r="E109">
-        <v>25.75802984955955</v>
+        <v>25.45058589103298</v>
       </c>
       <c r="F109">
-        <v>24.39479202828257</v>
+        <v>23.22920514843126</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>24.56872987993535</v>
+        <v>24.95708081087062</v>
       </c>
       <c r="C110">
-        <v>25.951228198474</v>
+        <v>25.21720149727244</v>
       </c>
       <c r="D110">
-        <v>24.37399417241085</v>
+        <v>25.07583741482719</v>
       </c>
       <c r="E110">
-        <v>25.66004502954633</v>
+        <v>25.34289798226856</v>
       </c>
       <c r="F110">
-        <v>24.3174939659108</v>
+        <v>23.22580125690074</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>24.46146167661374</v>
+        <v>24.85090186081162</v>
       </c>
       <c r="C111">
-        <v>25.83125404887475</v>
+        <v>25.10308512840719</v>
       </c>
       <c r="D111">
-        <v>24.31042434422674</v>
+        <v>24.9708930883742</v>
       </c>
       <c r="E111">
-        <v>25.56002428172554</v>
+        <v>25.23355221997609</v>
       </c>
       <c r="F111">
-        <v>24.23738190130815</v>
+        <v>23.22021283268055</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>24.35339269762773</v>
+        <v>24.74420275074388</v>
       </c>
       <c r="C112">
-        <v>25.71110984837</v>
+        <v>24.98809727415375</v>
       </c>
       <c r="D112">
-        <v>24.24401772725607</v>
+        <v>24.86425680016901</v>
       </c>
       <c r="E112">
-        <v>25.45822897046089</v>
+        <v>25.12283323104326</v>
       </c>
       <c r="F112">
-        <v>24.1546931239198</v>
+        <v>23.2124396257166</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>24.24464113355463</v>
+        <v>24.63708862142595</v>
       </c>
       <c r="C113">
-        <v>25.59084530771566</v>
+        <v>24.87240768044799</v>
       </c>
       <c r="D113">
-        <v>24.17497363781709</v>
+        <v>24.75617983419106</v>
       </c>
       <c r="E113">
-        <v>25.35489080053673</v>
+        <v>25.01097849889085</v>
       </c>
       <c r="F113">
-        <v>24.069643754416</v>
+        <v>23.20248222144802</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>24.13530864610939</v>
+        <v>24.52964316266149</v>
       </c>
       <c r="C114">
-        <v>25.47050055287712</v>
+        <v>24.75615703350988</v>
       </c>
       <c r="D114">
-        <v>24.10347692813357</v>
+        <v>24.64687784111605</v>
       </c>
       <c r="E114">
-        <v>25.25021507101626</v>
+        <v>24.89818622119992</v>
       </c>
       <c r="F114">
-        <v>23.98243072162657</v>
+        <v>23.19034201436221</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>24.02548280301705</v>
+        <v>24.42193314753357</v>
       </c>
       <c r="C115">
-        <v>25.35010800911995</v>
+        <v>24.63946197927477</v>
       </c>
       <c r="D115">
-        <v>24.02969913392439</v>
+        <v>24.53653580443551</v>
       </c>
       <c r="E115">
-        <v>25.14438360407422</v>
+        <v>24.78462191092192</v>
       </c>
       <c r="F115">
-        <v>23.89323359707685</v>
+        <v>23.176021201622</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>23.91523914688495</v>
+        <v>24.31401199483492</v>
       </c>
       <c r="C116">
-        <v>25.22969385303701</v>
+        <v>24.52241933651564</v>
       </c>
       <c r="D116">
-        <v>23.95379952525156</v>
+        <v>24.42531236500241</v>
       </c>
       <c r="E116">
-        <v>25.03755741928444</v>
+        <v>24.67042389858556</v>
       </c>
       <c r="F116">
-        <v>23.80221612889797</v>
+        <v>23.15952276290847</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>23.80464296168783</v>
+        <v>24.20592252835646</v>
       </c>
       <c r="C117">
-        <v>25.10927926374858</v>
+        <v>24.4051095572003</v>
       </c>
       <c r="D117">
-        <v>23.87592606606008</v>
+        <v>24.31334356203087</v>
       </c>
       <c r="E117">
-        <v>24.92987920264738</v>
+        <v>24.55570791316437</v>
       </c>
       <c r="F117">
-        <v>23.70952775497288</v>
+        <v>23.1408504438845</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>23.69375076920167</v>
+        <v>24.09769916702874</v>
       </c>
       <c r="C118">
-        <v>24.98888147151932</v>
+        <v>24.28759956579715</v>
       </c>
       <c r="D118">
-        <v>23.79621630655505</v>
+        <v>24.20074607319017</v>
       </c>
       <c r="E118">
-        <v>24.82147549307676</v>
+        <v>24.44057089580195</v>
       </c>
       <c r="F118">
-        <v>23.61530496466395</v>
+        <v>23.12000874292178</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>23.58261158888638</v>
+        <v>23.98936963123073</v>
       </c>
       <c r="C119">
-        <v>24.86851455649608</v>
+        <v>24.16994513167981</v>
       </c>
       <c r="D119">
-        <v>23.71479817941911</v>
+        <v>24.08762001445065</v>
       </c>
       <c r="E119">
-        <v>24.71245867411357</v>
+        <v>24.32509416673326</v>
       </c>
       <c r="F119">
-        <v>23.51967252277371</v>
+        <v>23.0970028931749</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>23.47126800262409</v>
+        <v>23.88095629948765</v>
       </c>
       <c r="C120">
-        <v>24.74819003983413</v>
+        <v>24.05219278207505</v>
       </c>
       <c r="D120">
-        <v>23.63179074350724</v>
+        <v>23.97405134346955</v>
       </c>
       <c r="E120">
-        <v>24.60292879713721</v>
+        <v>24.20934604767815</v>
       </c>
       <c r="F120">
-        <v>23.42274456538322</v>
+        <v>23.07183884727592</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>23.3597570613624</v>
+        <v>23.77247733537428</v>
       </c>
       <c r="C121">
-        <v>24.62791735169749</v>
+        <v>23.93438139806093</v>
       </c>
       <c r="D121">
-        <v>23.5473048641962</v>
+        <v>23.86011391319949</v>
       </c>
       <c r="E121">
-        <v>24.49297520692175</v>
+        <v>24.09338402999257</v>
       </c>
       <c r="F121">
-        <v>23.32462558646063</v>
+        <v>23.04452326197593</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>23.24811105886498</v>
+        <v>23.66394752037033</v>
       </c>
       <c r="C122">
-        <v>24.50770422647221</v>
+        <v>23.81654352283998</v>
       </c>
       <c r="D122">
-        <v>23.4614438364196</v>
+        <v>23.74587122419218</v>
       </c>
       <c r="E122">
-        <v>24.38267797584315</v>
+        <v>23.97725657080424</v>
       </c>
       <c r="F122">
-        <v>23.22541133957775</v>
+        <v>23.0150634880968</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>23.13635819168493</v>
+        <v>23.55537888663469</v>
       </c>
       <c r="C123">
-        <v>24.3875570055969</v>
+        <v>23.69870643354735</v>
       </c>
       <c r="D123">
-        <v>23.37430395659425</v>
+        <v>23.63137792905826</v>
       </c>
       <c r="E123">
-        <v>24.27210910687949</v>
+        <v>23.86100458279524</v>
       </c>
       <c r="F123">
-        <v>23.12518962266368</v>
+        <v>22.98346754589784</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>23.02452311874173</v>
+        <v>23.44678122145967</v>
       </c>
       <c r="C124">
-        <v>24.2674809487393</v>
+        <v>23.5808930171319</v>
       </c>
       <c r="D124">
-        <v>23.28597504771314</v>
+        <v>23.51668110903798</v>
       </c>
       <c r="E124">
-        <v>24.16133340367503</v>
+        <v>23.74466266988728</v>
       </c>
       <c r="F124">
-        <v>23.02404102261863</v>
+        <v>22.94974411733927</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>22.91262740464562</v>
+        <v>23.3381625077671</v>
       </c>
       <c r="C125">
-        <v>24.1474803382343</v>
+        <v>23.4631225224593</v>
       </c>
       <c r="D125">
-        <v>23.19654094096567</v>
+        <v>23.40182136485017</v>
       </c>
       <c r="E125">
-        <v>24.05040886383735</v>
+        <v>23.62826015208632</v>
       </c>
       <c r="F125">
-        <v>22.9220395729255</v>
+        <v>22.91390253581617</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>22.80069000898693</v>
+        <v>23.22952929118872</v>
       </c>
       <c r="C126">
-        <v>24.02755887407492</v>
+        <v>23.345411247248</v>
       </c>
       <c r="D126">
-        <v>23.10607992468878</v>
+        <v>23.2868337469505</v>
       </c>
       <c r="E126">
-        <v>23.93938646320555</v>
+        <v>23.51182191648248</v>
       </c>
       <c r="F126">
-        <v>22.81925334601494</v>
+        <v>22.87595275827035</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>22.68872759776953</v>
+        <v>23.1208869697477</v>
       </c>
       <c r="C127">
-        <v>23.90771953149706</v>
+        <v>23.22777293729273</v>
       </c>
       <c r="D127">
-        <v>23.01466514522966</v>
+        <v>23.17174854799323</v>
       </c>
       <c r="E127">
-        <v>23.82830938706211</v>
+        <v>23.39536912529772</v>
       </c>
       <c r="F127">
-        <v>22.71574498675841</v>
+        <v>22.83590536745183</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>22.57675480547123</v>
+        <v>23.0122399957364</v>
       </c>
       <c r="C128">
-        <v>23.78796480346512</v>
+        <v>23.11021920602655</v>
       </c>
       <c r="D128">
-        <v>22.92236498602795</v>
+        <v>23.05659196756988</v>
       </c>
       <c r="E128">
-        <v>23.71721215314425</v>
+        <v>23.27891980592908</v>
       </c>
       <c r="F128">
-        <v>22.61157219832796</v>
+        <v>22.79377155101031</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>22.46478465485576</v>
+        <v>22.9035920412409</v>
       </c>
       <c r="C129">
-        <v>23.66829679798213</v>
+        <v>22.9927598836701</v>
       </c>
       <c r="D129">
-        <v>22.82924341354613</v>
+        <v>22.94138669930709</v>
       </c>
       <c r="E129">
-        <v>23.60612035846932</v>
+        <v>23.16248934315735</v>
       </c>
       <c r="F129">
-        <v>22.50678817938388</v>
+        <v>22.74956308215678</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>22.35282853156723</v>
+        <v>22.79494613746798</v>
       </c>
       <c r="C130">
-        <v>23.54871719785545</v>
+        <v>22.87540330907076</v>
       </c>
       <c r="D130">
-        <v>22.73536029604794</v>
+        <v>22.82615239323626</v>
       </c>
       <c r="E130">
-        <v>23.49505151252083</v>
+        <v>23.04609086619977</v>
       </c>
       <c r="F130">
-        <v>22.40144201495278</v>
+        <v>22.70329233233887</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>22.24089651690258</v>
+        <v>22.68630478147236</v>
       </c>
       <c r="C131">
-        <v>23.42922743394213</v>
+        <v>22.75815657592733</v>
       </c>
       <c r="D131">
-        <v>22.64077169753913</v>
+        <v>22.71090622045487</v>
       </c>
       <c r="E131">
-        <v>23.38401674144295</v>
+        <v>22.92973564117231</v>
       </c>
       <c r="F131">
-        <v>22.29557903780265</v>
+        <v>22.6549722254197</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>22.12899755197889</v>
+        <v>22.57767006854328</v>
       </c>
       <c r="C132">
-        <v>23.30982869361914</v>
+        <v>22.64102574356104</v>
       </c>
       <c r="D132">
-        <v>22.54553014855951</v>
+        <v>22.59566306719511</v>
       </c>
       <c r="E132">
-        <v>23.27302271125512</v>
+        <v>22.8134333191329</v>
       </c>
       <c r="F132">
-        <v>22.18924115177781</v>
+        <v>22.60461625042437</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>22.01713954556206</v>
+        <v>22.46904373507113</v>
       </c>
       <c r="C133">
-        <v>23.19052196780079</v>
+        <v>22.5240159942139</v>
       </c>
       <c r="D133">
-        <v>22.4496848976403</v>
+        <v>22.48043587425578</v>
       </c>
       <c r="E133">
-        <v>23.16207324918432</v>
+        <v>22.69719222684759</v>
       </c>
       <c r="F133">
-        <v>22.08246712372665</v>
+        <v>22.55223845828757</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>21.90532952374992</v>
+        <v>22.36042724346209</v>
       </c>
       <c r="C134">
-        <v>23.07130810936263</v>
+        <v>22.40713176660705</v>
       </c>
       <c r="D134">
-        <v>22.35328214256325</v>
+        <v>22.36523594613585</v>
       </c>
       <c r="E134">
-        <v>23.05117049771791</v>
+        <v>22.58101957605477</v>
       </c>
       <c r="F134">
-        <v>21.97529282247081</v>
+        <v>22.4978534190926</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>21.79357376589772</v>
+        <v>22.2518218430691</v>
       </c>
       <c r="C135">
-        <v>22.95218782120186</v>
+        <v>22.29037687491834</v>
       </c>
       <c r="D135">
-        <v>22.25636524283096</v>
+        <v>22.25007311371967</v>
       </c>
       <c r="E135">
-        <v>22.9403156374214</v>
+        <v>22.46492152160333</v>
       </c>
       <c r="F135">
-        <v>21.86775153732924</v>
+        <v>22.44147625497651</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>21.6818778502418</v>
+        <v>22.14322852912225</v>
       </c>
       <c r="C136">
-        <v>22.83316169044454</v>
+        <v>22.17375459410814</v>
       </c>
       <c r="D136">
-        <v>22.15897491866346</v>
+        <v>22.13495596738593</v>
       </c>
       <c r="E136">
-        <v>22.82950931428967</v>
+        <v>22.34890340372306</v>
       </c>
       <c r="F136">
-        <v>21.75987408418762</v>
+        <v>22.38312260868551</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>21.57024674992552</v>
+        <v>22.03464818979044</v>
       </c>
       <c r="C137">
-        <v>22.71423021659278</v>
+        <v>22.05726774760923</v>
       </c>
       <c r="D137">
-        <v>22.06114943432826</v>
+        <v>22.01989202264251</v>
       </c>
       <c r="E137">
-        <v>22.71875188187767</v>
+        <v>22.23296983591903</v>
       </c>
       <c r="F137">
-        <v>21.65168917284696</v>
+        <v>22.32280862629079</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>21.45868492149501</v>
+        <v>21.92608151992966</v>
       </c>
       <c r="C138">
-        <v>22.59539380286855</v>
+        <v>21.94091876529628</v>
       </c>
       <c r="D138">
-        <v>21.9629247680996</v>
+        <v>21.90488789188791</v>
       </c>
       <c r="E138">
-        <v>22.60804353521379</v>
+        <v>22.11712480959571</v>
       </c>
       <c r="F138">
-        <v>21.54322339850167</v>
+        <v>22.26055099196615</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>21.34719633557005</v>
+        <v>21.81752912483886</v>
       </c>
       <c r="C139">
-        <v>22.4766527894001</v>
+        <v>21.8247097925942</v>
       </c>
       <c r="D139">
-        <v>21.86433476998927</v>
+        <v>21.78994936295815</v>
       </c>
       <c r="E139">
-        <v>22.49738438368586</v>
+        <v>22.00137179412042</v>
       </c>
       <c r="F139">
-        <v>21.43450154484614</v>
+        <v>22.19636688934218</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>21.23578455008801</v>
+        <v>21.70899150809565</v>
       </c>
       <c r="C140">
-        <v>22.35800745740307</v>
+        <v>21.70864264738097</v>
       </c>
       <c r="D140">
-        <v>21.76541130808626</v>
+        <v>21.6750815175294</v>
       </c>
       <c r="E140">
-        <v>22.38677449057727</v>
+        <v>21.88571383493205</v>
       </c>
       <c r="F140">
-        <v>21.32554665607504</v>
+        <v>22.13027402277735</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>21.12445275230149</v>
+        <v>21.60046909354644</v>
       </c>
       <c r="C141">
-        <v>22.23945803131946</v>
+        <v>21.59271901251257</v>
       </c>
       <c r="D141">
-        <v>21.66618440585696</v>
+        <v>21.56028883276132</v>
       </c>
       <c r="E141">
-        <v>22.27621389423745</v>
+        <v>21.77015357543638</v>
       </c>
       <c r="F141">
-        <v>21.21638016238042</v>
+        <v>22.06229060257557</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>21.01320380132662</v>
+        <v>21.4919622545646</v>
       </c>
       <c r="C142">
-        <v>22.12100471545208</v>
+        <v>21.47694026678784</v>
       </c>
       <c r="D142">
-        <v>21.56668236797917</v>
+        <v>21.44557524492379</v>
       </c>
       <c r="E142">
-        <v>22.16570261943086</v>
+        <v>21.65469332629083</v>
       </c>
       <c r="F142">
-        <v>21.10702208620468</v>
+        <v>21.9924353553017</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>20.90204029734325</v>
+        <v>21.38347129514395</v>
       </c>
       <c r="C143">
-        <v>22.00264765733817</v>
+        <v>21.36130772933407</v>
       </c>
       <c r="D143">
-        <v>21.46693189930611</v>
+        <v>21.33094422472471</v>
       </c>
       <c r="E143">
-        <v>22.05524068401301</v>
+        <v>21.53933512091601</v>
       </c>
       <c r="F143">
-        <v>20.99749105875885</v>
+        <v>21.9207275183068</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>20.79096451931762</v>
+        <v>21.27499648727584</v>
       </c>
       <c r="C144">
-        <v>21.88438698656241</v>
+        <v>21.24582247182214</v>
       </c>
       <c r="D144">
-        <v>21.36695821619404</v>
+        <v>21.21639883709376</v>
       </c>
       <c r="E144">
-        <v>21.9448281015394</v>
+        <v>21.42408073127809</v>
       </c>
       <c r="F144">
-        <v>20.88780451561623</v>
+        <v>21.84718685717025</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>20.67997864805278</v>
+        <v>21.16653805135043</v>
       </c>
       <c r="C145">
-        <v>21.76622283446426</v>
+        <v>21.13048551224799</v>
       </c>
       <c r="D145">
-        <v>21.26678515067517</v>
+        <v>21.1019417908694</v>
       </c>
       <c r="E145">
-        <v>21.83446488361938</v>
+        <v>21.30893171775373</v>
       </c>
       <c r="F145">
-        <v>20.77797872502554</v>
+        <v>21.77183366187914</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>20.56908449566073</v>
+        <v>21.05809617912562</v>
       </c>
       <c r="C146">
-        <v>21.648155248603</v>
+        <v>21.01529771009766</v>
       </c>
       <c r="D146">
-        <v>21.16643524857299</v>
+        <v>20.98757548022605</v>
       </c>
       <c r="E146">
-        <v>21.72415104085585</v>
+        <v>21.19388945121365</v>
       </c>
       <c r="F146">
-        <v>20.66802892205094</v>
+        <v>21.69468877173296</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>20.45828385876653</v>
+        <v>20.94967103170114</v>
       </c>
       <c r="C147">
-        <v>21.53018432896274</v>
+        <v>20.9002598620001</v>
       </c>
       <c r="D147">
-        <v>21.06592986233547</v>
+        <v>20.87330204858445</v>
       </c>
       <c r="E147">
-        <v>21.61388658326283</v>
+        <v>21.07895514111993</v>
       </c>
       <c r="F147">
-        <v>20.55796936201952</v>
+        <v>21.61577358046685</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>20.34757826532412</v>
+        <v>20.84126274603713</v>
       </c>
       <c r="C148">
-        <v>21.41231011424278</v>
+        <v>20.78537267675553</v>
       </c>
       <c r="D148">
-        <v>20.96528923920153</v>
+        <v>20.75912336575594</v>
       </c>
       <c r="E148">
-        <v>21.50367152070173</v>
+        <v>20.96412988367206</v>
       </c>
       <c r="F148">
-        <v>20.44781338337559</v>
+        <v>21.53511005916151</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>20.23696912273365</v>
+        <v>20.73287143919493</v>
       </c>
       <c r="C149">
-        <v>21.29453263567755</v>
+        <v>20.67063680648579</v>
       </c>
       <c r="D149">
-        <v>20.86453260731327</v>
+        <v>20.6450411727799</v>
       </c>
       <c r="E149">
-        <v>21.39350586303349</v>
+        <v>20.8494145934009</v>
       </c>
       <c r="F149">
-        <v>20.33757351530608</v>
+        <v>21.45272077438544</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>20.12645772626628</v>
+        <v>20.62449720847962</v>
       </c>
       <c r="C150">
-        <v>21.17685192611005</v>
+        <v>20.55605284672216</v>
       </c>
       <c r="D150">
-        <v>20.76367825412715</v>
+        <v>20.53105692469122</v>
       </c>
       <c r="E150">
-        <v>21.28338962024089</v>
+        <v>20.73481019330791</v>
       </c>
       <c r="F150">
-        <v>20.2272614810176</v>
+        <v>21.36862892421394</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>20.01604521359323</v>
+        <v>20.51614014655797</v>
       </c>
       <c r="C151">
-        <v>21.05926798834447</v>
+        <v>20.4416213527938</v>
       </c>
       <c r="D151">
-        <v>20.66274360868078</v>
+        <v>20.41717203125865</v>
       </c>
       <c r="E151">
-        <v>21.17332280249962</v>
+        <v>20.62031739106556</v>
       </c>
       <c r="F151">
-        <v>20.11688831072974</v>
+        <v>21.2828583675519</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>19.90573265327472</v>
+        <v>20.4078003194519</v>
       </c>
       <c r="C152">
-        <v>20.94178082860209</v>
+        <v>20.32734283408284</v>
       </c>
       <c r="D152">
-        <v>20.56174532147377</v>
+        <v>20.30338764722261</v>
       </c>
       <c r="E152">
-        <v>21.06330542025331</v>
+        <v>20.50593691394543</v>
       </c>
       <c r="F152">
-        <v>20.00646434906041</v>
+        <v>21.1954336611674</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>19.79552099665269</v>
+        <v>20.2994777938718</v>
       </c>
       <c r="C153">
-        <v>20.82439044187723</v>
+        <v>20.21321777270112</v>
       </c>
       <c r="D153">
-        <v>20.46069934362918</v>
+        <v>20.18970488694964</v>
       </c>
       <c r="E153">
-        <v>20.95333748425143</v>
+        <v>20.39166939411595</v>
       </c>
       <c r="F153">
-        <v>19.89599933587235</v>
+        <v>21.10638010125852</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>19.68541113343041</v>
+        <v>20.19117263742467</v>
       </c>
       <c r="C154">
-        <v>20.70709681794674</v>
+        <v>20.09924661441166</v>
       </c>
       <c r="D154">
-        <v>20.3596210085354</v>
+        <v>20.07612469134856</v>
       </c>
       <c r="E154">
-        <v>20.84341900557419</v>
+        <v>20.27751535502633</v>
       </c>
       <c r="F154">
-        <v>19.78550243130123</v>
+        <v>21.01572377856737</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>19.57540385858483</v>
+        <v>20.0828848787772</v>
       </c>
       <c r="C155">
-        <v>20.5898999422521</v>
+        <v>19.98542978487257</v>
       </c>
       <c r="D155">
-        <v>20.25852511815699</v>
+        <v>19.96264793989779</v>
       </c>
       <c r="E155">
-        <v>20.73354999567541</v>
+        <v>20.16347533352149</v>
       </c>
       <c r="F155">
-        <v>19.67498225938587</v>
+        <v>20.92349164195277</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>19.46549992259362</v>
+        <v>19.97461457413755</v>
       </c>
       <c r="C156">
-        <v>20.47279979414449</v>
+        <v>19.87176768541921</v>
       </c>
       <c r="D156">
-        <v>20.15742603687508</v>
+        <v>19.84927540504032</v>
       </c>
       <c r="E156">
-        <v>20.62373046636065</v>
+        <v>20.04954976020391</v>
       </c>
       <c r="F156">
-        <v>19.56444695731316</v>
+        <v>20.82971156905278</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>19.35570000447168</v>
+        <v>19.86636175959343</v>
       </c>
       <c r="C157">
-        <v>20.35579635488295</v>
+        <v>19.75826070185875</v>
       </c>
       <c r="D157">
-        <v>20.05633779345232</v>
+        <v>19.73600780112906</v>
       </c>
       <c r="E157">
-        <v>20.51396042986257</v>
+        <v>19.93573906068455</v>
       </c>
       <c r="F157">
-        <v>19.45390418586138</v>
+        <v>20.73441244397491</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>19.24600472744005</v>
+        <v>19.7581264568115</v>
       </c>
       <c r="C158">
-        <v>20.2388895963112</v>
+        <v>19.64490920605724</v>
       </c>
       <c r="D158">
-        <v>19.95527419627117</v>
+        <v>19.62284576423295</v>
       </c>
       <c r="E158">
-        <v>20.4042398988496</v>
+        <v>19.82204361048262</v>
       </c>
       <c r="F158">
-        <v>19.34336118966096</v>
+        <v>20.63762426206676</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>19.13641467817171</v>
+        <v>19.64990869862262</v>
       </c>
       <c r="C159">
-        <v>20.12207949125212</v>
+        <v>19.53171355385942</v>
       </c>
       <c r="D159">
-        <v>19.85424896482373</v>
+        <v>19.50978988566219</v>
       </c>
       <c r="E159">
-        <v>20.29456888641722</v>
+        <v>19.70846375932639</v>
       </c>
       <c r="F159">
-        <v>19.23282479913571</v>
+        <v>20.53937823779703</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>19.02693037987206</v>
+        <v>19.54170850318861</v>
       </c>
       <c r="C160">
-        <v>20.00536601117972</v>
+        <v>19.41867409637959</v>
       </c>
       <c r="D160">
-        <v>19.75327587886839</v>
+        <v>19.39684069809021</v>
       </c>
       <c r="E160">
-        <v>20.1849474061379</v>
+        <v>19.59499983307846</v>
       </c>
       <c r="F160">
-        <v>19.12230147983433</v>
+        <v>20.43970691555551</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>18.9175523338291</v>
+        <v>19.43352588863997</v>
       </c>
       <c r="C161">
-        <v>19.88874912020877</v>
+        <v>19.30579118473361</v>
       </c>
       <c r="D161">
-        <v>19.6523689425946</v>
+        <v>19.28399869084733</v>
       </c>
       <c r="E161">
-        <v>20.07537547206917</v>
+        <v>19.48165213099412</v>
       </c>
       <c r="F161">
-        <v>19.011797342954</v>
+        <v>20.33864434338152</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>18.80828099023898</v>
+        <v>19.32536087047237</v>
       </c>
       <c r="C162">
-        <v>19.77222878533538</v>
+        <v>19.19306514665523</v>
       </c>
       <c r="D162">
-        <v>19.55154254989293</v>
+        <v>19.1712643161991</v>
       </c>
       <c r="E162">
-        <v>19.96585309875433</v>
+        <v>19.36842094658063</v>
       </c>
       <c r="F162">
-        <v>18.90131816458281</v>
+        <v>20.23622622769678</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>18.6991167765746</v>
+        <v>19.21721346146466</v>
       </c>
       <c r="C163">
-        <v>19.65580496954094</v>
+        <v>19.08049631535221</v>
       </c>
       <c r="D163">
-        <v>19.45081161137118</v>
+        <v>19.05863798271047</v>
       </c>
       <c r="E163">
-        <v>19.85638030125536</v>
+        <v>19.25530653668316</v>
       </c>
       <c r="F163">
-        <v>18.79086942890064</v>
+        <v>20.13249012013863</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>18.59006008563727</v>
+        <v>19.10908367289603</v>
       </c>
       <c r="C164">
-        <v>19.539477634744</v>
+        <v>18.96808503882445</v>
       </c>
       <c r="D164">
-        <v>19.35019156542824</v>
+        <v>18.94612007517219</v>
       </c>
       <c r="E164">
-        <v>19.74695709516962</v>
+        <v>19.1423091641803</v>
       </c>
       <c r="F164">
-        <v>18.68045635109938</v>
+        <v>20.02747563268947</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>18.48111128645722</v>
+        <v>19.00097151410912</v>
       </c>
       <c r="C165">
-        <v>19.42324674190683</v>
+        <v>18.85583163920499</v>
       </c>
       <c r="D165">
-        <v>19.24969815126322</v>
+        <v>18.83371094304493</v>
       </c>
       <c r="E165">
-        <v>19.63758349662602</v>
+        <v>19.02942906756742</v>
       </c>
       <c r="F165">
-        <v>18.5700838203311</v>
+        <v>19.92122467821177</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>18.37227072048313</v>
+        <v>18.89287699319258</v>
       </c>
       <c r="C166">
-        <v>19.30711225161326</v>
+        <v>18.74373643602795</v>
       </c>
       <c r="D166">
-        <v>19.14934682336766</v>
+        <v>18.72141091653646</v>
       </c>
       <c r="E166">
-        <v>19.52825952231316</v>
+        <v>18.91666647395431</v>
       </c>
       <c r="F166">
-        <v>18.45975656371772</v>
+        <v>19.81378173899736</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>18.26353870469867</v>
+        <v>18.78480011894609</v>
       </c>
       <c r="C167">
-        <v>19.19107412350042</v>
+        <v>18.63179977630037</v>
       </c>
       <c r="D167">
-        <v>19.04915182836135</v>
+        <v>18.60922030063386</v>
       </c>
       <c r="E167">
-        <v>19.41898518949941</v>
+        <v>18.80402160645671</v>
       </c>
       <c r="F167">
-        <v>18.34947904172794</v>
+        <v>19.70519415478621</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>18.15491555002962</v>
+        <v>18.67674089533609</v>
       </c>
       <c r="C168">
-        <v>19.07513231669302</v>
+        <v>18.52002198840806</v>
       </c>
       <c r="D168">
-        <v>18.94912523392309</v>
+        <v>18.49713938521444</v>
       </c>
       <c r="E168">
-        <v>19.30976051603392</v>
+        <v>18.69149467337601</v>
       </c>
       <c r="F168">
-        <v>18.23925545021214</v>
+        <v>19.59551242561942</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>18.04640155481753</v>
+        <v>18.56869932878044</v>
       </c>
       <c r="C169">
-        <v>18.95928679054856</v>
+        <v>18.40840339134584</v>
       </c>
       <c r="D169">
-        <v>18.84927635112886</v>
+        <v>18.38516843989767</v>
       </c>
       <c r="E169">
-        <v>19.20058552037038</v>
+        <v>18.57908588082026</v>
       </c>
       <c r="F169">
-        <v>18.12908987559049</v>
+        <v>19.48479052245546</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>17.93799696580417</v>
+        <v>18.4606754241827</v>
       </c>
       <c r="C170">
-        <v>18.84353750414253</v>
+        <v>18.29694432848249</v>
       </c>
       <c r="D170">
-        <v>18.7496117781255</v>
+        <v>18.27330772489765</v>
       </c>
       <c r="E170">
-        <v>19.09146022158907</v>
+        <v>18.46679542716483</v>
       </c>
       <c r="F170">
-        <v>18.0189861356387</v>
+        <v>19.37308617897878</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>17.82970203978322</v>
+        <v>18.3526691834698</v>
       </c>
       <c r="C171">
-        <v>18.72788441564389</v>
+        <v>18.18564513565945</v>
       </c>
       <c r="D171">
-        <v>18.65013590764684</v>
+        <v>18.16155748242848</v>
       </c>
       <c r="E171">
-        <v>18.98238463939474</v>
+        <v>18.35462350778203</v>
       </c>
       <c r="F171">
-        <v>17.90894788861861</v>
+        <v>19.26046112662544</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>17.72151704508003</v>
+        <v>18.24468061008496</v>
       </c>
       <c r="C172">
-        <v>18.61232748438735</v>
+        <v>18.074506145876</v>
       </c>
       <c r="D172">
-        <v>18.55085157414918</v>
+        <v>18.04991794914947</v>
       </c>
       <c r="E172">
-        <v>18.87335879413756</v>
+        <v>18.24257031404525</v>
       </c>
       <c r="F172">
-        <v>17.7989786560285</v>
+        <v>19.14698123142976</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>17.61344223954019</v>
+        <v>18.13670970589312</v>
       </c>
       <c r="C173">
-        <v>18.49686666851525</v>
+        <v>17.96352770357004</v>
       </c>
       <c r="D173">
-        <v>18.45176061178222</v>
+        <v>17.93838934727235</v>
       </c>
       <c r="E173">
-        <v>18.76438270683943</v>
+        <v>18.13063603479376</v>
       </c>
       <c r="F173">
-        <v>17.68908174324229</v>
+        <v>19.03271647990157</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>17.50547778935662</v>
+        <v>18.02875647207795</v>
       </c>
       <c r="C174">
-        <v>18.38150192686911</v>
+        <v>17.85271015451857</v>
       </c>
       <c r="D174">
-        <v>18.35286425437885</v>
+        <v>17.82697189441512</v>
       </c>
       <c r="E174">
-        <v>18.65545639919859</v>
+        <v>18.01882085872623</v>
       </c>
       <c r="F174">
-        <v>17.57926035475441</v>
+        <v>18.91774070329322</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>17.39762393650199</v>
+        <v>17.92082090944024</v>
       </c>
       <c r="C175">
-        <v>18.26623321828036</v>
+        <v>17.74205384923009</v>
       </c>
       <c r="D175">
-        <v>18.25416338680543</v>
+        <v>17.71566579707582</v>
       </c>
       <c r="E175">
-        <v>18.5465798936051</v>
+        <v>17.90712497006956</v>
       </c>
       <c r="F175">
-        <v>17.46951754231806</v>
+        <v>18.80213097159803</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>17.28988090814028</v>
+        <v>17.81290301871186</v>
       </c>
       <c r="C176">
-        <v>18.15106050162796</v>
+        <v>17.63155914344353</v>
       </c>
       <c r="D176">
-        <v>18.15565869728104</v>
+        <v>17.60447125860908</v>
       </c>
       <c r="E176">
-        <v>18.43775321317231</v>
+        <v>17.79554855619028</v>
       </c>
       <c r="F176">
-        <v>17.35985621430887</v>
+        <v>18.68596660602516</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>17.18224892148789</v>
+        <v>17.70500279998059</v>
       </c>
       <c r="C177">
-        <v>18.0359837360938</v>
+        <v>17.52122639852842</v>
       </c>
       <c r="D177">
-        <v>18.05735076633623</v>
+        <v>17.49338847937349</v>
       </c>
       <c r="E177">
-        <v>18.32897638173694</v>
+        <v>17.68409180121452</v>
       </c>
       <c r="F177">
-        <v>17.25027918005967</v>
+        <v>18.56932774250349</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>17.07472811843643</v>
+        <v>17.59712025318134</v>
       </c>
       <c r="C178">
-        <v>17.92100288129053</v>
+        <v>17.41105598014734</v>
       </c>
       <c r="D178">
-        <v>17.95924011648953</v>
+        <v>17.38241765023881</v>
       </c>
       <c r="E178">
-        <v>18.22024942387332</v>
+        <v>17.57275489096381</v>
       </c>
       <c r="F178">
-        <v>17.14078912006077</v>
+        <v>18.45229352643685</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>16.9673187187807</v>
+        <v>17.48925537798867</v>
       </c>
       <c r="C179">
-        <v>17.80611789711577</v>
+        <v>17.30104826262164</v>
       </c>
       <c r="D179">
-        <v>17.8613272398944</v>
+        <v>17.27155896106296</v>
       </c>
       <c r="E179">
-        <v>18.11157236492938</v>
+        <v>17.46153801192458</v>
       </c>
       <c r="F179">
-        <v>17.03138860885019</v>
+        <v>18.33494008018036</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>16.86002091205485</v>
+        <v>17.38140817413439</v>
       </c>
       <c r="C180">
-        <v>17.69132874391891</v>
+        <v>17.19120362653812</v>
       </c>
       <c r="D180">
-        <v>17.76361261405938</v>
+        <v>17.16081260568867</v>
       </c>
       <c r="E180">
-        <v>18.00294523103582</v>
+        <v>17.35044135094412</v>
       </c>
       <c r="F180">
-        <v>16.92208013719736</v>
+        <v>18.21733849424945</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>16.75283488058669</v>
+        <v>17.27357864080496</v>
       </c>
       <c r="C181">
-        <v>17.57663538251491</v>
+        <v>17.08152245402676</v>
       </c>
       <c r="D181">
-        <v>17.66609671041037</v>
+        <v>17.05017877013032</v>
       </c>
       <c r="E181">
-        <v>17.8943680491118</v>
+        <v>17.2394650972006</v>
       </c>
       <c r="F181">
-        <v>16.81286607228045</v>
+        <v>18.09955312153073</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>16.64576078371482</v>
+        <v>17.16576677713927</v>
       </c>
       <c r="C182">
-        <v>17.46203777434074</v>
+        <v>16.97200513963281</v>
       </c>
       <c r="D182">
-        <v>17.56877999919898</v>
+        <v>16.93965763394823</v>
       </c>
       <c r="E182">
-        <v>17.78584084690963</v>
+        <v>17.12860944129907</v>
       </c>
       <c r="F182">
-        <v>16.70374871818195</v>
+        <v>17.98164041295772</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>16.53879880402315</v>
+        <v>17.05797258236231</v>
       </c>
       <c r="C183">
-        <v>17.347535881115</v>
+        <v>16.86265208367434</v>
       </c>
       <c r="D183">
-        <v>17.47166295199981</v>
+        <v>16.82924938882087</v>
       </c>
       <c r="E183">
-        <v>17.67736365301848</v>
+        <v>17.01787457653634</v>
       </c>
       <c r="F183">
-        <v>16.59473029161635</v>
+        <v>17.86364841446002</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>16.43194911267285</v>
+        <v>16.95019605505366</v>
       </c>
       <c r="C184">
-        <v>17.23312966536727</v>
+        <v>16.75346368983035</v>
       </c>
       <c r="D184">
-        <v>17.3747460433132</v>
+        <v>16.71895422126891</v>
       </c>
       <c r="E184">
-        <v>17.56893649686905</v>
+        <v>16.90726069848919</v>
       </c>
       <c r="F184">
-        <v>16.48581291233156</v>
+        <v>17.74561689989889</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>16.32521187832532</v>
+        <v>16.84243719404414</v>
       </c>
       <c r="C185">
-        <v>17.11881909012134</v>
+        <v>16.64444037253344</v>
       </c>
       <c r="D185">
-        <v>17.27802975138625</v>
+        <v>16.60877230878133</v>
       </c>
       <c r="E185">
-        <v>17.46055940878367</v>
+        <v>16.79676800582923</v>
       </c>
       <c r="F185">
-        <v>16.37699864860744</v>
+        <v>17.62757800740532</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>16.21858726747114</v>
+        <v>16.73469599791757</v>
       </c>
       <c r="C186">
-        <v>17.00460411894724</v>
+        <v>16.53558255283041</v>
       </c>
       <c r="D186">
-        <v>17.18151455868761</v>
+        <v>16.4987038418042</v>
       </c>
       <c r="E186">
-        <v>17.35223241999183</v>
+        <v>16.68639670050771</v>
       </c>
       <c r="F186">
-        <v>16.26828948916749</v>
+        <v>17.50955718280198</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>16.11207544826443</v>
+        <v>16.62697246512129</v>
       </c>
       <c r="C187">
-        <v>16.89048471616276</v>
+        <v>16.42689065896569</v>
       </c>
       <c r="D187">
-        <v>17.08520095219957</v>
+        <v>16.3887490083927</v>
       </c>
       <c r="E187">
-        <v>17.24395556262214</v>
+        <v>16.57614698738507</v>
       </c>
       <c r="F187">
-        <v>16.15968735378967</v>
+        <v>17.39157425329721</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>16.00567658838895</v>
+        <v>16.5192665940217</v>
       </c>
       <c r="C188">
-        <v>16.77646084671726</v>
+        <v>16.31836512724672</v>
       </c>
       <c r="D188">
-        <v>16.98908942358821</v>
+        <v>16.27890799256186</v>
       </c>
       <c r="E188">
-        <v>17.13572886976605</v>
+        <v>16.46601907564251</v>
       </c>
       <c r="F188">
-        <v>16.05119411189327</v>
+        <v>17.27364448826107</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>15.89939085347666</v>
+        <v>16.4115783829626</v>
       </c>
       <c r="C189">
-        <v>16.66253247627332</v>
+        <v>16.2100064020074</v>
       </c>
       <c r="D189">
-        <v>16.89318046932956</v>
+        <v>16.16918098596002</v>
       </c>
       <c r="E189">
-        <v>17.02755237548273</v>
+        <v>16.35601317759804</v>
       </c>
       <c r="F189">
-        <v>15.94281156553726</v>
+        <v>17.15577956005006</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>15.79321841007338</v>
+        <v>16.30390783020818</v>
       </c>
       <c r="C190">
-        <v>16.54869957124222</v>
+        <v>16.1018149364343</v>
       </c>
       <c r="D190">
-        <v>16.79747459075982</v>
+        <v>16.05956818075086</v>
       </c>
       <c r="E190">
-        <v>16.91942611479842</v>
+        <v>16.24612951017293</v>
       </c>
       <c r="F190">
-        <v>15.83454146912581</v>
+        <v>17.03798835816815</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>15.68715942913882</v>
+        <v>16.19625493396967</v>
       </c>
       <c r="C191">
-        <v>16.43496209882199</v>
+        <v>15.99379119210152</v>
       </c>
       <c r="D191">
-        <v>16.70197229419148</v>
+        <v>15.95006977052728</v>
       </c>
       <c r="E191">
-        <v>16.81135012376904</v>
+        <v>16.1363682943539</v>
       </c>
       <c r="F191">
-        <v>15.72638552885939</v>
+        <v>16.92027766468299</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>15.58121408267981</v>
+        <v>16.08861969241182</v>
       </c>
       <c r="C192">
-        <v>16.32132002699672</v>
+        <v>15.88593563919193</v>
       </c>
       <c r="D192">
-        <v>16.6066740909183</v>
+        <v>15.84068595263493</v>
       </c>
       <c r="E192">
-        <v>16.70332443949905</v>
+        <v>16.02672975560031</v>
       </c>
       <c r="F192">
-        <v>15.61834539520089</v>
+        <v>16.80265269260772</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>15.47538253629102</v>
+        <v>15.98100210371252</v>
       </c>
       <c r="C193">
-        <v>16.20777332458569</v>
+        <v>15.77824875712352</v>
       </c>
       <c r="D193">
-        <v>16.51158049728421</v>
+        <v>15.73141692771142</v>
       </c>
       <c r="E193">
-        <v>16.59534910013333</v>
+        <v>15.9172141241865</v>
       </c>
       <c r="F193">
-        <v>15.51042268493553</v>
+        <v>16.68511748020387</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>15.36966496264801</v>
+        <v>15.87340216598651</v>
       </c>
       <c r="C194">
-        <v>16.09432196127954</v>
+        <v>15.67073103461518</v>
       </c>
       <c r="D194">
-        <v>16.41669203473073</v>
+        <v>15.62226289906805</v>
       </c>
       <c r="E194">
-        <v>16.48742414492695</v>
+        <v>15.80782163522991</v>
       </c>
       <c r="F194">
-        <v>15.40261896986617</v>
+        <v>16.56767519393264</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>15.2640615390138</v>
+        <v>15.76581987728744</v>
       </c>
       <c r="C195">
-        <v>15.98096590764441</v>
+        <v>15.56338296986483</v>
       </c>
       <c r="D195">
-        <v>16.32200922977879</v>
+        <v>15.51322407392854</v>
       </c>
       <c r="E195">
-        <v>16.37954961425735</v>
+        <v>15.69855252904607</v>
       </c>
       <c r="F195">
-        <v>15.29493577931792</v>
+        <v>16.45032836763132</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>15.15857244385353</v>
+        <v>15.65825523572552</v>
       </c>
       <c r="C196">
-        <v>15.867705135152</v>
+        <v>15.45620507058517</v>
       </c>
       <c r="D196">
-        <v>16.22753261417642</v>
+        <v>15.40430066424215</v>
       </c>
       <c r="E196">
-        <v>16.27172554962414</v>
+        <v>15.58940705119172</v>
       </c>
       <c r="F196">
-        <v>15.18737461487773</v>
+        <v>16.3330790781609</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>15.05319784926586</v>
+        <v>15.55070823930599</v>
       </c>
       <c r="C197">
-        <v>15.75453961623361</v>
+        <v>15.34919785421991</v>
       </c>
       <c r="D197">
-        <v>16.13326272487665</v>
+        <v>15.29549288531098</v>
       </c>
       <c r="E197">
-        <v>16.16395199371755</v>
+        <v>15.48038545281593</v>
       </c>
       <c r="F197">
-        <v>15.07993693825818</v>
+        <v>16.21592906598536</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>14.94793793880781</v>
+        <v>15.44317888605493</v>
       </c>
       <c r="C198">
-        <v>15.64146932426974</v>
+        <v>15.24236184862445</v>
       </c>
       <c r="D198">
-        <v>16.03920010405585</v>
+        <v>15.18680095601208</v>
       </c>
       <c r="E198">
-        <v>16.05622899044518</v>
+        <v>15.37148799074373</v>
       </c>
       <c r="F198">
-        <v>14.9726241819795</v>
+        <v>16.09887982404064</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>14.84279289689942</v>
+        <v>15.33566717398082</v>
       </c>
       <c r="C199">
-        <v>15.52849423364681</v>
+        <v>15.13569759175214</v>
       </c>
       <c r="D199">
-        <v>15.94534529920269</v>
+        <v>15.07822510152828</v>
       </c>
       <c r="E199">
-        <v>15.94855658492557</v>
+        <v>15.26271492766171</v>
       </c>
       <c r="F199">
-        <v>14.86543775287397</v>
+        <v>15.98193266458678</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>14.73776291049987</v>
+        <v>15.22817310107073</v>
       </c>
       <c r="C200">
-        <v>15.41561431978096</v>
+        <v>15.02920563190613</v>
       </c>
       <c r="D200">
-        <v>15.8516988631345</v>
+        <v>14.96976555115918</v>
       </c>
       <c r="E200">
-        <v>15.84093482356248</v>
+        <v>15.15406653241164</v>
       </c>
       <c r="F200">
-        <v>14.75837902455566</v>
+        <v>15.86508876784161</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>14.6328481674214</v>
+        <v>15.12069666530322</v>
       </c>
       <c r="C201">
-        <v>15.30282955914761</v>
+        <v>14.92288652824284</v>
       </c>
       <c r="D201">
-        <v>15.75826135400835</v>
+        <v>14.86142253793677</v>
       </c>
       <c r="E201">
-        <v>15.73336375407112</v>
+        <v>15.04554308004387</v>
       </c>
       <c r="F201">
-        <v>14.65144935192938</v>
+        <v>15.74834921519653</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>14.52804886157557</v>
+        <v>15.01323786465668</v>
       </c>
       <c r="C202">
-        <v>15.19013992930134</v>
+        <v>14.81674085082511</v>
       </c>
       <c r="D202">
-        <v>15.66503333541473</v>
+        <v>14.75319630167216</v>
       </c>
       <c r="E202">
-        <v>15.62584342547594</v>
+        <v>14.93714485212284</v>
       </c>
       <c r="F202">
-        <v>14.54465006534955</v>
+        <v>15.63171501282422</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>14.42336518954381</v>
+        <v>14.90579669711199</v>
       </c>
       <c r="C203">
-        <v>15.0775454089458</v>
+        <v>14.71076918109804</v>
       </c>
       <c r="D203">
-        <v>15.57201537645179</v>
+        <v>14.64508708711174</v>
       </c>
       <c r="E203">
-        <v>15.51837388818337</v>
+        <v>14.82887213688293</v>
       </c>
       <c r="F203">
-        <v>14.43798247156419</v>
+        <v>15.51518710924044</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>14.31879735189242</v>
+        <v>14.79837316064566</v>
       </c>
       <c r="C204">
-        <v>14.96504597791493</v>
+        <v>14.60497211158396</v>
       </c>
       <c r="D204">
-        <v>15.47920805157027</v>
+        <v>14.53709514416911</v>
       </c>
       <c r="E204">
-        <v>15.41095519402165</v>
+        <v>14.72072522941357</v>
       </c>
       <c r="F204">
-        <v>14.33144786230675</v>
+        <v>15.39876640847267</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>14.21434555381177</v>
+        <v>14.69096725323529</v>
       </c>
       <c r="C205">
-        <v>14.8526416172483</v>
+        <v>14.49935024657405</v>
       </c>
       <c r="D205">
-        <v>15.38661194080296</v>
+        <v>14.42922072903932</v>
       </c>
       <c r="E205">
-        <v>15.30358739623718</v>
+        <v>14.61270443188408</v>
       </c>
       <c r="F205">
-        <v>14.2250475092056</v>
+        <v>15.28245377864764</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>14.11001000414283</v>
+        <v>14.58357897287214</v>
       </c>
       <c r="C206">
-        <v>14.74033230921153</v>
+        <v>14.39390420273465</v>
       </c>
       <c r="D206">
-        <v>15.29422762975052</v>
+        <v>14.32146410380627</v>
       </c>
       <c r="E206">
-        <v>15.19627054957017</v>
+        <v>14.50481005377707</v>
       </c>
       <c r="F206">
-        <v>14.11878266798318</v>
+        <v>15.1662500585257</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>14.00579091658029</v>
+        <v>14.47620831755223</v>
       </c>
       <c r="C207">
-        <v>14.6281180373193</v>
+        <v>14.28863460835224</v>
       </c>
       <c r="D207">
-        <v>15.20205570931492</v>
+        <v>14.21382553702852</v>
       </c>
       <c r="E207">
-        <v>15.08900471030182</v>
+        <v>14.3970424120132</v>
       </c>
       <c r="F207">
-        <v>14.01265458249249</v>
+        <v>15.05015606385217</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>13.90168850962846</v>
+        <v>14.36885528526527</v>
       </c>
       <c r="C208">
-        <v>14.51599878640379</v>
+        <v>14.18354210429458</v>
       </c>
       <c r="D208">
-        <v>15.11009677638886</v>
+        <v>14.10630530362765</v>
       </c>
       <c r="E208">
-        <v>14.98178993625241</v>
+        <v>14.28940183129976</v>
       </c>
       <c r="F208">
-        <v>13.90666447998684</v>
+        <v>14.9341725881535</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>13.79770300683631</v>
+        <v>14.26151987402792</v>
       </c>
       <c r="C209">
-        <v>14.40397454260964</v>
+        <v>14.07862734457076</v>
       </c>
       <c r="D209">
-        <v>15.01835143350065</v>
+        <v>13.99890368524348</v>
       </c>
       <c r="E209">
-        <v>14.87462628685547</v>
+        <v>14.18188864419307</v>
       </c>
       <c r="F209">
-        <v>13.80081357943623</v>
+        <v>14.81830040620527</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>13.69383463711695</v>
+        <v>14.15420208185529</v>
       </c>
       <c r="C210">
-        <v>14.29204529347243</v>
+        <v>13.97389099569127</v>
       </c>
       <c r="D210">
-        <v>14.92682028878474</v>
+        <v>13.89162097060703</v>
       </c>
       <c r="E210">
-        <v>14.76751382321555</v>
+        <v>14.07450319151785</v>
       </c>
       <c r="F210">
-        <v>13.6951030893665</v>
+        <v>14.70254027669401</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>13.59008363490783</v>
+        <v>14.04690190677249</v>
       </c>
       <c r="C211">
-        <v>14.18021102793904</v>
+        <v>13.86933373751847</v>
       </c>
       <c r="D211">
-        <v>14.83550395611563</v>
+        <v>13.78445745564512</v>
       </c>
       <c r="E211">
-        <v>14.66045260811128</v>
+        <v>13.96724582242968</v>
       </c>
       <c r="F211">
-        <v>13.58953420737122</v>
+        <v>14.58689294441761</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>13.48645023969236</v>
+        <v>13.93961934682124</v>
       </c>
       <c r="C212">
-        <v>14.06847173639876</v>
+        <v>13.76495626384507</v>
       </c>
       <c r="D212">
-        <v>14.74440305514055</v>
+        <v>13.67741344362818</v>
       </c>
       <c r="E212">
-        <v>14.55344270606657</v>
+        <v>13.86011689458284</v>
       </c>
       <c r="F212">
-        <v>13.4841081264742</v>
+        <v>14.47135914253636</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>13.38293469689796</v>
+        <v>13.83235440005421</v>
       </c>
       <c r="C213">
-        <v>13.95682741077322</v>
+        <v>13.66075928187747</v>
       </c>
       <c r="D213">
-        <v>14.65351821130629</v>
+        <v>13.57048924554992</v>
       </c>
       <c r="E213">
-        <v>14.44648418342444</v>
+        <v>13.7531167744873</v>
       </c>
       <c r="F213">
-        <v>13.37882603223157</v>
+        <v>14.35593959199643</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>13.27953725858858</v>
+        <v>13.72510706453821</v>
       </c>
       <c r="C214">
-        <v>13.84527804448969</v>
+        <v>13.55674351300392</v>
       </c>
       <c r="D214">
-        <v>14.56285005589629</v>
+        <v>13.46368518033655</v>
       </c>
       <c r="E214">
-        <v>14.33957710835189</v>
+        <v>13.64624583829969</v>
       </c>
       <c r="F214">
-        <v>13.27368910472165</v>
+        <v>14.24063500226189</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>13.17625818288084</v>
+        <v>13.61787733835634</v>
       </c>
       <c r="C215">
-        <v>13.73382363259625</v>
+        <v>13.45290969343719</v>
       </c>
       <c r="D215">
-        <v>14.47239922606578</v>
+        <v>13.35700157497037</v>
       </c>
       <c r="E215">
-        <v>14.23272155090717</v>
+        <v>13.53950447074868</v>
       </c>
       <c r="F215">
-        <v>13.16869852193076</v>
+        <v>14.12544607289631</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>13.07309773388907</v>
+        <v>13.51066521961081</v>
       </c>
       <c r="C216">
-        <v>13.62246417177252</v>
+        <v>13.34925857379095</v>
       </c>
       <c r="D216">
-        <v>14.38216636521425</v>
+        <v>13.25043876486157</v>
       </c>
       <c r="E216">
-        <v>14.12591758312955</v>
+        <v>13.43289306626541</v>
       </c>
       <c r="F216">
-        <v>13.06385545759844</v>
+        <v>14.01037349448835</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>12.97005618272991</v>
+        <v>13.40347070642044</v>
       </c>
       <c r="C217">
-        <v>13.51119966037965</v>
+        <v>13.24579091968322</v>
       </c>
       <c r="D217">
-        <v>14.29215212242019</v>
+        <v>13.14399709425844</v>
       </c>
       <c r="E217">
-        <v>14.01916527904936</v>
+        <v>13.32641202964613</v>
       </c>
       <c r="F217">
-        <v>12.95916108496739</v>
+        <v>13.895417950564</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>12.86713380746462</v>
+        <v>13.29629379692393</v>
       </c>
       <c r="C218">
-        <v>13.4000300985921</v>
+        <v>13.14250751256838</v>
       </c>
       <c r="D218">
-        <v>14.20235715249131</v>
+        <v>13.03767691602445</v>
       </c>
       <c r="E218">
-        <v>13.91246471474771</v>
+        <v>13.22006177594042</v>
       </c>
       <c r="F218">
-        <v>12.8546165771001</v>
+        <v>13.78058011738164</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>12.76433089315919</v>
+        <v>13.18913448928121</v>
       </c>
       <c r="C219">
-        <v>13.28895548827787</v>
+        <v>13.03940914939962</v>
       </c>
       <c r="D219">
-        <v>14.1127821161483</v>
+        <v>12.93147859222747</v>
       </c>
       <c r="E219">
-        <v>13.80581596846902</v>
+        <v>13.11384272981844</v>
       </c>
       <c r="F219">
-        <v>12.75022310534191</v>
+        <v>13.66586066417823</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>12.66164773297805</v>
+        <v>13.08199278167457</v>
       </c>
       <c r="C220">
-        <v>13.17797583314495</v>
+        <v>12.93649664300278</v>
       </c>
       <c r="D220">
-        <v>14.02342768035294</v>
+        <v>12.82540249496548</v>
       </c>
       <c r="E220">
-        <v>13.69921912063701</v>
+        <v>13.00775532680453</v>
       </c>
       <c r="F220">
-        <v>12.64598184590389</v>
+        <v>13.55126025412469</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.55908462689315</v>
+        <v>12.97486867230599</v>
       </c>
       <c r="C221">
-        <v>13.06709113891722</v>
+        <v>12.83377082307708</v>
       </c>
       <c r="D221">
-        <v>13.93429451816077</v>
+        <v>12.71944900542531</v>
       </c>
       <c r="E221">
-        <v>13.59267425390322</v>
+        <v>12.90180001495851</v>
       </c>
       <c r="F221">
-        <v>12.54189397767954</v>
+        <v>13.43677954489739</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>12.45664188290803</v>
+        <v>12.8677621594041</v>
       </c>
       <c r="C222">
-        <v>12.95630141333015</v>
+        <v>12.73123253607161</v>
       </c>
       <c r="D222">
-        <v>13.84538330872903</v>
+        <v>12.61361851493696</v>
       </c>
       <c r="E222">
-        <v>13.48618145328479</v>
+        <v>12.79597725199974</v>
       </c>
       <c r="F222">
-        <v>12.43796068371988</v>
+        <v>13.32241918993189</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>12.35431981723131</v>
+        <v>12.76067324122103</v>
       </c>
       <c r="C223">
-        <v>12.84560666590636</v>
+        <v>12.62888264524392</v>
       </c>
       <c r="D223">
-        <v>13.75669473732341</v>
+        <v>12.50791142580046</v>
       </c>
       <c r="E223">
-        <v>13.37974080618992</v>
+        <v>12.69028750764281</v>
       </c>
       <c r="F223">
-        <v>12.33418314505046</v>
+        <v>13.20817983951645</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>12.2521187557868</v>
+        <v>12.65360191603381</v>
       </c>
       <c r="C224">
-        <v>12.73500690828202</v>
+        <v>12.52672203180829</v>
       </c>
       <c r="D224">
-        <v>13.6682294955833</v>
+        <v>12.40232815051112</v>
       </c>
       <c r="E224">
-        <v>13.27335240244988</v>
+        <v>12.58473126395804</v>
       </c>
       <c r="F224">
-        <v>12.23056255797498</v>
+        <v>13.09406214033575</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>12.15003903155156</v>
+        <v>12.54654818214699</v>
       </c>
       <c r="C225">
-        <v>12.62450215464755</v>
+        <v>12.42475159507199</v>
       </c>
       <c r="D225">
-        <v>13.57998828101533</v>
+        <v>12.29686911243501</v>
       </c>
       <c r="E225">
-        <v>13.16701633448909</v>
+        <v>12.4793090160879</v>
       </c>
       <c r="F225">
-        <v>12.12710012348916</v>
+        <v>12.98006673644161</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>12.04808098694533</v>
+        <v>12.43951203789441</v>
       </c>
       <c r="C226">
-        <v>12.51409242111667</v>
+        <v>12.32297225218819</v>
       </c>
       <c r="D226">
-        <v>13.49197179780175</v>
+        <v>12.19153474678812</v>
       </c>
       <c r="E226">
-        <v>13.06073269736065</v>
+        <v>12.37402127052384</v>
       </c>
       <c r="F226">
-        <v>12.02379705104816</v>
+        <v>12.86619426958067</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>11.94624497394777</v>
+        <v>12.33249348163763</v>
       </c>
       <c r="C227">
-        <v>12.40377772598745</v>
+        <v>12.22138493943172</v>
       </c>
       <c r="D227">
-        <v>13.40418075658168</v>
+        <v>12.08632550045561</v>
       </c>
       <c r="E227">
-        <v>12.95450158884939</v>
+        <v>12.26886854711372</v>
       </c>
       <c r="F227">
-        <v>11.92065454850168</v>
+        <v>12.75244538082606</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>11.84453135506364</v>
+        <v>12.22549251176779</v>
       </c>
       <c r="C228">
-        <v>12.29355808997032</v>
+        <v>12.11999061259945</v>
       </c>
       <c r="D228">
-        <v>13.3166158734529</v>
+        <v>11.98124183188578</v>
       </c>
       <c r="E228">
-        <v>12.84832310966866</v>
+        <v>12.16385138035246</v>
       </c>
       <c r="F228">
-        <v>11.81767384646008</v>
+        <v>12.63882071065319</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>11.742940501207</v>
+        <v>12.11850912670699</v>
       </c>
       <c r="C229">
-        <v>12.18343353685944</v>
+        <v>12.01879024646248</v>
       </c>
       <c r="D229">
-        <v>13.22927786932002</v>
+        <v>11.87628421237053</v>
       </c>
       <c r="E229">
-        <v>12.74219736284964</v>
+        <v>12.05897031767545</v>
       </c>
       <c r="F229">
-        <v>11.71485618242643</v>
+        <v>12.52532089927398</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>11.64147279391512</v>
+        <v>12.01154332491691</v>
       </c>
       <c r="C230">
-        <v>12.07340409222794</v>
+        <v>11.91778483618003</v>
       </c>
       <c r="D230">
-        <v>13.14216747379596</v>
+        <v>11.77145312644612</v>
       </c>
       <c r="E230">
-        <v>12.63612445541354</v>
+        <v>11.954225920413</v>
       </c>
       <c r="F230">
-        <v>11.61220280609985</v>
+        <v>12.41194658740614</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>11.54012862585394</v>
+        <v>11.90459510488673</v>
       </c>
       <c r="C231">
-        <v>11.96346978446846</v>
+        <v>11.81697539798117</v>
       </c>
       <c r="D231">
-        <v>13.05528542144036</v>
+        <v>11.66674907102394</v>
       </c>
       <c r="E231">
-        <v>12.53010449632032</v>
+        <v>11.84961876486953</v>
       </c>
       <c r="F231">
-        <v>11.50971497212098</v>
+        <v>12.29869841767511</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>11.43890840098819</v>
+        <v>11.79766446514059</v>
       </c>
       <c r="C232">
-        <v>11.85363064479447</v>
+        <v>11.71636296827928</v>
       </c>
       <c r="D232">
-        <v>12.96863245455741</v>
+        <v>11.56217255696665</v>
       </c>
       <c r="E232">
-        <v>12.42413759747157</v>
+        <v>11.74514944397598</v>
       </c>
       <c r="F232">
-        <v>11.40739395748833</v>
+        <v>12.18557703392557</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>11.33781253328542</v>
+        <v>11.69075140423908</v>
       </c>
       <c r="C233">
-        <v>11.74388670759681</v>
+        <v>11.61594860525232</v>
       </c>
       <c r="D233">
-        <v>12.88220932136926</v>
+        <v>11.45772411011748</v>
       </c>
       <c r="E233">
-        <v>12.31822387509443</v>
+        <v>11.64081856410174</v>
       </c>
       <c r="F233">
-        <v>11.3052410507936</v>
+        <v>12.07258308268002</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>11.2368414486129</v>
+        <v>11.58385592079194</v>
       </c>
       <c r="C234">
-        <v>11.63423800957027</v>
+        <v>11.5157333898247</v>
       </c>
       <c r="D234">
-        <v>12.79601677664936</v>
+        <v>11.35340426960489</v>
       </c>
       <c r="E234">
-        <v>12.21236344872649</v>
+        <v>11.5366267480873</v>
       </c>
       <c r="F234">
-        <v>11.20325755606701</v>
+        <v>11.95971721431637</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>11.13599558599617</v>
+        <v>11.47697801343784</v>
       </c>
       <c r="C235">
-        <v>11.52468459056565</v>
+        <v>11.41571842442012</v>
       </c>
       <c r="D235">
-        <v>12.71005558131336</v>
+        <v>11.24921358974734</v>
       </c>
       <c r="E235">
-        <v>12.10655644115615</v>
+        <v>11.43257463644319</v>
       </c>
       <c r="F235">
-        <v>11.10144479219029</v>
+        <v>11.84698008165247</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>11.03527539645052</v>
+        <v>11.37011768085702</v>
       </c>
       <c r="C236">
-        <v>11.41522649386462</v>
+        <v>11.3159048347181</v>
       </c>
       <c r="D236">
-        <v>12.62432650270109</v>
+        <v>11.14515264176977</v>
       </c>
       <c r="E236">
-        <v>12.00080297879602</v>
+        <v>11.32866288657821</v>
       </c>
       <c r="F236">
-        <v>10.99980409678455</v>
+        <v>11.73437234448983</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>10.93468134278522</v>
+        <v>11.2632749217725</v>
       </c>
       <c r="C237">
-        <v>11.30586376598458</v>
+        <v>11.21629377094252</v>
       </c>
       <c r="D237">
-        <v>12.53883031455175</v>
+        <v>11.04122201123074</v>
       </c>
       <c r="E237">
-        <v>11.89510319163654</v>
+        <v>11.22489217212385</v>
       </c>
       <c r="F237">
-        <v>10.89833682524213</v>
+        <v>11.62189466418223</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>10.83421390120598</v>
+        <v>11.15644973496495</v>
       </c>
       <c r="C238">
-        <v>11.19659645637431</v>
+        <v>11.11688640626584</v>
       </c>
       <c r="D238">
-        <v>12.45356779708942</v>
+        <v>10.93742230044461</v>
       </c>
       <c r="E238">
-        <v>11.7894572137904</v>
+        <v>11.12126318506864</v>
       </c>
       <c r="F238">
-        <v>10.79704435199698</v>
+        <v>11.50954771110392</v>
       </c>
     </row>
   </sheetData>
